--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -44,7 +44,25 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 2:42 PM</t>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>Friday, 11 July, 2025 2:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +272,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +284,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,32 +692,46 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
+      <c r="P8" s="13">
+        <v>2</v>
+      </c>
       <c r="Q8" s="13"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c t="s" r="A9" s="14">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -707,13 +739,13 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c t="s" r="G9" s="15">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c t="s" r="K9" s="17">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -44,6 +44,24 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -62,7 +80,7 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 2:53 PM</t>
+    <t>Friday, 11 July, 2025 2:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +742,71 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
+      <c r="A8" s="7">
         <v>2</v>
       </c>
-      <c r="Q8" s="13"/>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>19</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>20</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="P9" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>23</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
+        <v>24</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
+        <v>25</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +820,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -80,7 +80,7 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 2:59 PM</t>
+    <t>Friday, 11 July, 2025 3:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>28.00</t>
   </si>
   <si>
     <t>14.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -74,10 +86,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>Friday, 11 July, 2025 3:15 PM</t>
@@ -760,53 +772,86 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="13"/>
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>23</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>24</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>26</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>23</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>24</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>25</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>29.879999999999999</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>27</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>28</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>29</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -825,10 +870,15 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -92,7 +92,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 3:15 PM</t>
+    <t>Friday, 11 July, 2025 3:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
     <t>11.8800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
@@ -92,7 +104,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 3:16 PM</t>
+    <t>Friday, 11 July, 2025 4:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -805,53 +817,86 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>29.879999999999999</v>
-      </c>
-      <c r="Q10" s="13"/>
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>26</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>27</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>28</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>30</v>
+      </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
-        <v>27</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>28</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>29</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>52.880000000000003</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>31</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>32</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>33</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -875,10 +920,15 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -104,7 +104,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 4:00 PM</t>
+    <t>Friday, 11 July, 2025 4:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>14.0000</t>
   </si>
   <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -104,7 +116,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 4:10 PM</t>
+    <t>Friday, 11 July, 2025 4:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -850,53 +862,86 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>29</v>
       </c>
-      <c t="s" r="Q10" s="12">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>52.880000000000003</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
         <v>31</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>32</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
         <v>33</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c t="s" r="Q11" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>90.5</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>35</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>36</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>37</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -925,10 +970,15 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -116,7 +116,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 4:12 PM</t>
+    <t>Friday, 11 July, 2025 4:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>CORASORE 150MG 20 TAB</t>
   </si>
   <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>46.00</t>
   </si>
   <si>
@@ -98,12 +110,21 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>NEOZOLID 250 MG 6 TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>36.50</t>
+  </si>
+  <si>
+    <t>36.5000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -116,7 +137,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 4:32 PM</t>
+    <t>Friday, 11 July, 2025 5:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -774,7 +795,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -783,14 +804,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -800,14 +821,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -840,7 +861,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -873,7 +894,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -895,53 +916,119 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>33</v>
       </c>
-      <c t="s" r="Q11" s="12">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>90.5</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>35</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>36</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c t="s" r="Q12" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>37</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>34</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>38</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>39</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>171</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>42</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>43</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>44</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -975,10 +1062,20 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -122,6 +122,15 @@
     <t>36.5000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -137,7 +146,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 5:02 PM</t>
+    <t>Friday, 11 July, 2025 5:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -976,13 +985,13 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -990,45 +999,78 @@
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>40</v>
       </c>
-      <c t="s" r="Q13" s="12">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>34</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>171</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>42</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
         <v>43</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c t="s" r="Q14" s="12">
         <v>44</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>194</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>45</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>46</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>47</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1072,10 +1114,15 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -44,21 +44,51 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMIGRAINE ADCO 30 TABLETS</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>44.00</t>
   </si>
   <si>
     <t>44.0000</t>
   </si>
   <si>
+    <t>CERELAC تمر وقمح ولبن</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>CORASORE 150MG 20 TAB</t>
   </si>
   <si>
@@ -71,9 +101,6 @@
     <t>23.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -98,6 +125,15 @@
     <t>14.0000</t>
   </si>
   <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
@@ -113,9 +149,6 @@
     <t>NEOZOLID 250 MG 6 TABS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>36.50</t>
   </si>
   <si>
@@ -134,9 +167,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -146,7 +176,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 5:39 PM</t>
+    <t>Friday, 11 July, 2025 6:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -804,7 +834,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -813,14 +843,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -830,14 +860,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -859,18 +889,18 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -879,14 +909,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -896,14 +926,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -912,14 +942,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -929,14 +959,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -945,14 +975,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -962,14 +992,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -978,14 +1008,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -999,10 +1029,10 @@
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1011,66 +1041,165 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>194</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>45</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>22</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>46</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
         <v>47</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c t="s" r="Q15" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>48</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>49</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>50</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>51</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>22</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>23</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>52</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>540.69000000000005</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>55</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>56</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>57</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1119,10 +1248,25 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -62,12 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AUGMENTIN ES-600 PD. FOR ORAL SUSP. 75 ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>169.0000</t>
+  </si>
+  <si>
     <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>44.00</t>
   </si>
   <si>
@@ -125,6 +134,15 @@
     <t>14.0000</t>
   </si>
   <si>
+    <t>DROPIFLOX OTIC DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>HERO BABY 2 MILK 400 GM</t>
   </si>
   <si>
@@ -164,19 +182,37 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8557:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>Friday, 11 July, 2025 6:02 PM</t>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>66:0</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>Friday, 11 July, 2025 6:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -883,21 +919,21 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>18</v>
@@ -909,31 +945,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -942,14 +978,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -959,11 +995,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -975,14 +1011,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -992,11 +1028,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1008,14 +1044,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1032,7 +1068,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1048,7 +1084,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1058,14 +1094,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1074,14 +1110,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1091,11 +1127,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
@@ -1107,14 +1143,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1124,11 +1160,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1147,13 +1183,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1164,42 +1200,174 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>540.69000000000005</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
         <v>55</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>56</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>57</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>58</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>59</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>62</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>25</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>26</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>59</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>63</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>64</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>26</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>65</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>755.69000000000005</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>67</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>68</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>69</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1263,10 +1431,30 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -212,7 +212,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 6:05 PM</t>
+    <t>Friday, 11 July, 2025 6:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -62,12 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AQUA PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>AUGMENTIN ES-600 PD. FOR ORAL SUSP. 75 ML</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>169.00</t>
   </si>
   <si>
@@ -83,12 +92,21 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>142.00</t>
+  </si>
+  <si>
+    <t>142.0000</t>
+  </si>
+  <si>
     <t>CERELAC تمر وقمح ولبن</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -182,6 +200,15 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>REGIMAX 120MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>158.4000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -200,19 +227,25 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>سرنجات دواء 5 سم</t>
   </si>
   <si>
-    <t>66:0</t>
+    <t>65:0</t>
   </si>
   <si>
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>Friday, 11 July, 2025 6:13 PM</t>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>Friday, 11 July, 2025 6:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -952,21 +985,21 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>18</v>
@@ -978,14 +1011,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -995,14 +1028,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1011,31 +1044,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1044,14 +1077,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1061,11 +1094,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1077,14 +1110,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1094,14 +1127,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1110,14 +1143,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1134,7 +1167,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1150,7 +1183,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1160,14 +1193,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1176,14 +1209,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1193,11 +1226,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>18</v>
@@ -1209,14 +1242,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1226,11 +1259,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1249,7 +1282,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1259,14 +1292,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1275,31 +1308,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1315,59 +1348,158 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>66</v>
       </c>
-      <c t="s" r="Q21" s="12">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>67</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>13</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>68</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>71</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>28</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>32</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>68</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>755.69000000000005</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>67</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
-        <v>68</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
-        <v>69</v>
-      </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>74</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>75</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>32</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>76</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>1110.0899999999999</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>78</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>79</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>80</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1451,10 +1583,25 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -128,6 +128,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>DALOLIFE 10 SACHET</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -140,12 +149,21 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>28.00</t>
   </si>
   <si>
@@ -209,6 +227,27 @@
     <t>158.4000</t>
   </si>
   <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>VITACID C 1GM 12 EFF. TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -227,10 +266,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>5:0</t>
+    <t>12.0000</t>
   </si>
   <si>
     <t>سرنجات دواء 5 سم</t>
@@ -245,7 +281,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 6:40 PM</t>
+    <t>Friday, 11 July, 2025 6:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1117,24 +1153,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1143,14 +1179,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1160,11 +1196,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1176,14 +1212,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1200,7 +1236,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1216,7 +1252,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1233,7 +1269,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1249,7 +1285,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1259,14 +1295,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1275,7 +1311,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1292,11 +1328,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
@@ -1308,14 +1344,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1325,11 +1361,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1348,7 +1384,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1365,7 +1401,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1395,10 +1431,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1407,31 +1443,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1440,66 +1476,231 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>73</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>28</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>13</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>74</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>76</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>47</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>13</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>77</v>
       </c>
-      <c t="s" r="Q24" s="12">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>1110.0899999999999</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
         <v>78</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>79</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
         <v>80</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>13</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>81</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>84</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>28</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>32</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>81</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>86</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>87</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>32</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>88</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>1342.24</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>90</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>91</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>92</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1598,10 +1799,35 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -83,6 +83,21 @@
     <t>169.0000</t>
   </si>
   <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>128.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
   </si>
   <si>
@@ -95,9 +110,6 @@
     <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>142.00</t>
   </si>
   <si>
@@ -161,6 +173,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>DIACEREIN 50MG 30 CAP.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
@@ -179,6 +203,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>DULOXEPRIN 30MG 28 CAPSULES</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
     <t>HERO BABY 2 MILK 400 GM</t>
   </si>
   <si>
@@ -191,9 +224,6 @@
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>114.00</t>
   </si>
   <si>
@@ -227,6 +257,15 @@
     <t>158.4000</t>
   </si>
   <si>
+    <t>SORAL 30 MG 30CAPS</t>
+  </si>
+  <si>
+    <t>129.00</t>
+  </si>
+  <si>
+    <t>129.0000</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -260,13 +299,10 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>20.0000</t>
   </si>
   <si>
     <t>سرنجات دواء 5 سم</t>
@@ -281,7 +317,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 6:52 PM</t>
+    <t>Friday, 11 July, 2025 6:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1021,7 +1057,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1031,14 +1067,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1047,14 +1083,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1064,11 +1100,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>18</v>
@@ -1080,20 +1116,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1120,13 +1156,13 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1137,7 +1173,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1153,24 +1189,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1179,20 +1215,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1203,7 +1239,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1252,7 +1288,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1262,11 +1298,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1278,14 +1314,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1295,11 +1331,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>18</v>
@@ -1311,14 +1347,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1328,14 +1364,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1344,14 +1380,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1361,14 +1397,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1377,14 +1413,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1394,11 +1430,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>18</v>
@@ -1410,14 +1446,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1431,10 +1467,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1443,14 +1479,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1460,14 +1496,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1476,14 +1512,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1493,14 +1529,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1509,14 +1545,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1526,14 +1562,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1542,14 +1578,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1559,14 +1595,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1575,31 +1611,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>83</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1608,31 +1644,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1648,59 +1684,191 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>89</v>
       </c>
-      <c t="s" r="Q29" s="12">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1342.24</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>51</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>13</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>90</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
         <v>91</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>92</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>93</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>13</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>94</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>96</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>25</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>36</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>94</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>98</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>99</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>36</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>100</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1943.24</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>102</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>103</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>104</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1824,10 +1992,30 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -242,12 +242,15 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>REGIMAX 120MG 30 CAPS</t>
   </si>
   <si>
@@ -317,7 +320,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 6:53 PM</t>
+    <t>Friday, 11 July, 2025 6:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1552,7 +1555,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1562,14 +1565,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1578,7 +1581,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1595,11 +1598,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>55</v>
@@ -1611,7 +1614,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1628,11 +1631,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
@@ -1644,7 +1647,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1677,7 +1680,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1694,11 +1697,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -1710,7 +1713,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1727,11 +1730,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1743,14 +1746,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1760,11 +1763,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>28</v>
@@ -1776,7 +1779,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1793,11 +1796,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1809,14 +1812,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1826,11 +1829,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>28</v>
@@ -1838,13 +1841,13 @@
     </row>
     <row r="34" ht="25.5" customHeight="1">
       <c r="P34" s="13">
-        <v>1943.24</v>
+        <v>1989.24</v>
       </c>
       <c r="Q34" s="13"/>
     </row>
     <row r="35" ht="16.5" customHeight="1">
       <c t="s" r="A35" s="14">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -1852,13 +1855,13 @@
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c t="s" r="G35" s="15">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
       <c r="J35" s="16"/>
       <c t="s" r="K35" s="17">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -242,6 +242,9 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
+    <t>1:3</t>
+  </si>
+  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -320,7 +323,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 6:57 PM</t>
+    <t>Friday, 11 July, 2025 7:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1555,7 +1558,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1565,14 +1568,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1581,7 +1584,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1598,11 +1601,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>55</v>
@@ -1614,7 +1617,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1631,11 +1634,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
@@ -1647,7 +1650,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1680,7 +1683,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1697,11 +1700,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -1713,7 +1716,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1730,11 +1733,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1746,14 +1749,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1763,11 +1766,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>28</v>
@@ -1779,7 +1782,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1796,11 +1799,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1812,14 +1815,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1829,11 +1832,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>28</v>
@@ -1847,7 +1850,7 @@
     </row>
     <row r="35" ht="16.5" customHeight="1">
       <c t="s" r="A35" s="14">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -1855,13 +1858,13 @@
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c t="s" r="G35" s="15">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
       <c r="J35" s="16"/>
       <c t="s" r="K35" s="17">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -323,7 +323,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 7:02 PM</t>
+    <t>Friday, 11 July, 2025 7:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -221,6 +221,21 @@
     <t>256.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>MULTI-RELAX 10MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
@@ -248,12 +263,6 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>REGIMAX 120MG 30 CAPS</t>
   </si>
   <si>
@@ -263,6 +272,15 @@
     <t>158.4000</t>
   </si>
   <si>
+    <t>SIRDALUD 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>SORAL 30 MG 30CAPS</t>
   </si>
   <si>
@@ -323,7 +341,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 7:07 PM</t>
+    <t>Friday, 11 July, 2025 7:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1492,13 +1510,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1506,7 +1524,7 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1518,14 +1536,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1535,14 +1553,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1551,14 +1569,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1568,14 +1586,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1584,14 +1602,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1601,14 +1619,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1617,31 +1635,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1650,14 +1668,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1667,14 +1685,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1683,14 +1701,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1700,14 +1718,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1716,31 +1734,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1749,14 +1767,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1766,14 +1784,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1782,7 +1800,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1795,18 +1813,18 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1815,66 +1833,165 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>100</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>101</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>13</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>102</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
         <v>103</v>
       </c>
-      <c t="s" r="Q33" s="12">
+      <c t="s" r="Q34" s="12">
         <v>28</v>
       </c>
     </row>
-    <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1989.24</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>104</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>25</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>36</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>102</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
         <v>105</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c t="s" r="Q35" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>106</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>107</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>36</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>108</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>2038.24</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>110</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>111</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>112</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2018,10 +2135,25 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -341,7 +341,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 7:15 PM</t>
+    <t>Friday, 11 July, 2025 7:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -62,12 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AQUA PLUS SYRUP 100 ML</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
@@ -95,9 +104,6 @@
     <t>128.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
   </si>
   <si>
@@ -212,6 +218,15 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
     <t>HERO BABY 2 MILK 400 GM</t>
   </si>
   <si>
@@ -254,6 +269,15 @@
     <t>36.5000</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -293,6 +317,9 @@
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>VITACID C 1GM 12 EFF. TAB.</t>
   </si>
   <si>
@@ -326,7 +353,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>20.0000</t>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>17:0</t>
   </si>
   <si>
     <t>سرنجات دواء 5 سم</t>
@@ -341,7 +371,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 7:16 PM</t>
+    <t>Friday, 11 July, 2025 7:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1025,14 +1055,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1048,7 +1078,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1065,7 +1095,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1081,7 +1111,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1091,14 +1121,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1107,14 +1137,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1124,11 +1154,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>18</v>
@@ -1140,14 +1170,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1157,14 +1187,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1173,31 +1203,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1206,31 +1236,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1239,31 +1269,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1272,31 +1302,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1305,14 +1335,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1322,11 +1352,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1338,14 +1368,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1355,14 +1385,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1371,14 +1401,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1388,14 +1418,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1404,14 +1434,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1421,14 +1451,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1437,14 +1467,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1454,14 +1484,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1470,14 +1500,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1487,14 +1517,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1503,31 +1533,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1543,7 +1573,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1560,7 +1590,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1576,13 +1606,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1590,7 +1620,7 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1602,14 +1632,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1619,14 +1649,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1635,14 +1665,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1652,11 +1682,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1668,14 +1698,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1685,14 +1715,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1701,14 +1731,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1718,14 +1748,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1734,20 +1764,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1755,10 +1785,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1767,14 +1797,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1784,14 +1814,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1800,14 +1830,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1817,14 +1847,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1833,31 +1863,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1866,14 +1896,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1883,14 +1913,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1899,31 +1929,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1939,59 +1969,158 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>109</v>
       </c>
-      <c t="s" r="Q36" s="12">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>110</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>13</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>111</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>113</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
         <v>28</v>
       </c>
-    </row>
-    <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>2038.24</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>110</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>38</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>111</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
-        <v>112</v>
-      </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>116</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>117</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>38</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>118</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>2251.52</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>120</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>121</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>122</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2150,10 +2279,25 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -371,7 +371,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 7:32 PM</t>
+    <t>Friday, 11 July, 2025 7:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -218,6 +218,18 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t>EUTHYROX 100MCG 50 TAB.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -227,6 +239,15 @@
     <t>17.2800</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>HERO BABY 2 MILK 400 GM</t>
   </si>
   <si>
@@ -236,6 +257,15 @@
     <t>256.0000</t>
   </si>
   <si>
+    <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
@@ -299,9 +329,6 @@
     <t>SIRDALUD 4MG 20 TAB</t>
   </si>
   <si>
-    <t>70.00</t>
-  </si>
-  <si>
     <t>35.0000</t>
   </si>
   <si>
@@ -371,7 +398,10 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 7:42 PM</t>
+    <t xml:space="preserve">كريم كازانوفا </t>
+  </si>
+  <si>
+    <t>Friday, 11 July, 2025 7:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1540,7 +1570,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1550,14 +1580,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1566,14 +1596,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1583,14 +1613,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1599,31 +1629,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1632,14 +1662,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1649,14 +1679,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1665,14 +1695,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1682,14 +1712,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1698,31 +1728,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1731,14 +1761,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1748,14 +1778,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1764,14 +1794,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1785,7 +1815,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1797,14 +1827,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1814,14 +1844,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1830,14 +1860,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1847,14 +1877,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1863,31 +1893,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1896,14 +1926,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1913,14 +1943,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1929,14 +1959,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1946,14 +1976,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1962,31 +1992,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1995,14 +2025,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2012,14 +2042,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2028,7 +2058,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2041,18 +2071,18 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>115</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2061,66 +2091,198 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>118</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
         <v>119</v>
       </c>
-      <c t="s" r="Q39" s="12">
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>13</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>120</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>2251.52</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>122</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>28</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>38</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
         <v>120</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
-        <v>121</v>
-      </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
-        <v>122</v>
-      </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>125</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>126</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>38</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>127</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>129</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>20</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>38</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>67</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>2597.52</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>130</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>131</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>132</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2294,10 +2456,30 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -134,6 +134,15 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>CORASORE 150MG 20 TAB</t>
   </si>
   <si>
@@ -266,6 +275,12 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
@@ -341,6 +356,15 @@
     <t>129.0000</t>
   </si>
   <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -380,10 +404,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>17:0</t>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>18:0</t>
   </si>
   <si>
     <t>سرنجات دواء 5 سم</t>
@@ -401,7 +425,7 @@
     <t xml:space="preserve">كريم كازانوفا </t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 7:57 PM</t>
+    <t>Friday, 11 July, 2025 8:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1306,7 +1330,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1316,11 +1340,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1332,20 +1356,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1356,7 +1380,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1372,24 +1396,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1398,14 +1422,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1415,11 +1439,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1431,14 +1455,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1448,14 +1472,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1464,14 +1488,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1488,7 +1512,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1504,7 +1528,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1521,7 +1545,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1537,7 +1561,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1570,7 +1594,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1580,11 +1604,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1596,14 +1620,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1620,7 +1644,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1653,7 +1677,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1669,7 +1693,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1702,7 +1726,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1735,13 +1759,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1749,10 +1773,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1761,14 +1785,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1778,7 +1802,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -1801,13 +1825,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1815,7 +1839,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1827,14 +1851,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1844,14 +1868,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1860,14 +1884,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1877,14 +1901,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1893,14 +1917,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1910,14 +1934,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1926,14 +1950,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1943,14 +1967,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1959,14 +1983,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1976,11 +2000,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1999,13 +2023,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2016,7 +2040,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2042,14 +2066,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2065,13 +2089,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2098,7 +2122,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2131,7 +2155,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2141,14 +2165,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2157,7 +2181,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2170,18 +2194,18 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>124</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2190,31 +2214,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2223,66 +2247,165 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>2597.52</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
         <v>130</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>28</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>38</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>128</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
         <v>131</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c t="s" r="Q44" s="12">
         <v>132</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>133</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>134</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>38</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>135</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>137</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>20</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>38</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>70</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>2676.7399999999998</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>138</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>139</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>140</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2476,10 +2599,25 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -200,6 +200,15 @@
     <t>156.0000</t>
   </si>
   <si>
+    <t>DOXIPROCT PLUS RECTAL OINT. 30 GM</t>
+  </si>
+  <si>
+    <t>26.50</t>
+  </si>
+  <si>
+    <t>26.5000</t>
+  </si>
+  <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
@@ -425,7 +434,7 @@
     <t xml:space="preserve">كريم كازانوفا </t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 8:04 PM</t>
+    <t>Friday, 11 July, 2025 8:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1528,7 +1537,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1545,7 +1554,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1561,7 +1570,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1578,7 +1587,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1594,7 +1603,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1627,7 +1636,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1637,11 +1646,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -1653,14 +1662,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1677,7 +1686,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1710,7 +1719,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1726,7 +1735,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1759,7 +1768,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1802,14 +1811,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1818,28 +1827,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1851,28 +1860,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1891,7 +1900,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1924,7 +1933,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1941,7 +1950,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1957,7 +1966,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1990,7 +1999,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2000,14 +2009,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2023,7 +2032,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2033,14 +2042,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2056,7 +2065,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2066,14 +2075,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2082,31 +2091,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2122,13 +2131,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2139,7 +2148,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2155,7 +2164,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2165,14 +2174,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2181,14 +2190,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2198,7 +2207,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2221,7 +2230,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2238,7 +2247,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2254,7 +2263,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2264,14 +2273,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2280,31 +2289,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>132</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2320,7 +2329,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2330,14 +2339,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2346,14 +2355,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2363,49 +2372,82 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>2676.7399999999998</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>138</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
-        <v>139</v>
-      </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
         <v>140</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>20</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>38</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>73</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>2703.2399999999998</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>141</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>142</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>143</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2614,10 +2656,15 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMIGRAINE ADCO 30 TABLETS</t>
   </si>
   <si>
     <t>10:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>93.00</t>
   </si>
   <si>
     <t>30.6900</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -170,12 +182,6 @@
     <t>2:1</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
     <t>DEXAZONE 0.5MG 60 TAB</t>
   </si>
   <si>
@@ -413,10 +419,19 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>18:0</t>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
   </si>
   <si>
     <t>سرنجات دواء 5 سم</t>
@@ -425,16 +440,13 @@
     <t>65:0</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>6.0000</t>
   </si>
   <si>
     <t xml:space="preserve">كريم كازانوفا </t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 8:13 PM</t>
+    <t>Friday, 11 July, 2025 8:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1118,14 +1130,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1141,7 +1153,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1151,14 +1163,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1167,14 +1179,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1184,14 +1196,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1200,14 +1212,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1224,7 +1236,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1240,7 +1252,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1250,14 +1262,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1266,14 +1278,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1283,14 +1295,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1299,20 +1311,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1323,7 +1335,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1339,24 +1351,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1365,14 +1377,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1405,24 +1417,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1431,20 +1443,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1455,7 +1467,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1481,11 +1493,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1497,14 +1509,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1514,14 +1526,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1530,14 +1542,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1547,14 +1559,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1563,14 +1575,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1580,14 +1592,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1596,14 +1608,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1613,14 +1625,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1629,14 +1641,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1646,14 +1658,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1662,14 +1674,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1679,14 +1691,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1695,14 +1707,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1712,14 +1724,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1728,14 +1740,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1745,14 +1757,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1761,14 +1773,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1778,14 +1790,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1794,14 +1806,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1811,14 +1823,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1827,14 +1839,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1844,14 +1856,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1867,21 +1879,21 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1900,13 +1912,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1914,7 +1926,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1926,14 +1938,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1943,11 +1955,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1959,14 +1971,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1976,14 +1988,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1992,14 +2004,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2009,14 +2021,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2025,14 +2037,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2042,14 +2054,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2058,14 +2070,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2079,10 +2091,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2091,14 +2103,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2108,14 +2120,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2131,24 +2143,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2157,31 +2169,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2190,14 +2202,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2207,14 +2219,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2230,7 +2242,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2240,14 +2252,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2256,14 +2268,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2273,14 +2285,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2289,14 +2301,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2306,14 +2318,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2322,31 +2334,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>135</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2355,31 +2367,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2388,66 +2400,132 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>2703.2399999999998</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>141</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
         <v>142</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>42</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>138</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
         <v>143</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c t="s" r="Q48" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>144</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>24</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>42</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>75</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2726.1199999999999</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>145</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>146</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>147</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2661,10 +2739,20 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -446,7 +446,7 @@
     <t xml:space="preserve">كريم كازانوفا </t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 8:33 PM</t>
+    <t>Friday, 11 July, 2025 8:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -206,6 +206,15 @@
     <t>156.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>DOXIPROCT PLUS RECTAL OINT. 30 GM</t>
   </si>
   <si>
@@ -347,6 +356,15 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>REGIMAX 120MG 30 CAPS</t>
   </si>
   <si>
@@ -386,6 +404,15 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>VITACID C 1GM 12 EFF. TAB.</t>
   </si>
   <si>
@@ -395,6 +422,12 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -419,7 +452,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>19:0</t>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>20:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -431,9 +467,6 @@
     <t>9.0000</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>سرنجات دواء 5 سم</t>
   </si>
   <si>
@@ -446,7 +479,7 @@
     <t xml:space="preserve">كريم كازانوفا </t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 8:34 PM</t>
+    <t>Friday, 11 July, 2025 8:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1582,7 +1615,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1599,7 +1632,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1615,7 +1648,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1632,7 +1665,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1648,7 +1681,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1665,7 +1698,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1681,7 +1714,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1714,7 +1747,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1724,11 +1757,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>24</v>
@@ -1740,14 +1773,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1764,7 +1797,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1797,7 +1830,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1813,7 +1846,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1846,7 +1879,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1889,14 +1922,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1905,28 +1938,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1938,28 +1971,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1978,7 +2011,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2011,7 +2044,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2028,7 +2061,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2044,7 +2077,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2077,7 +2110,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2087,14 +2120,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2110,7 +2143,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2120,14 +2153,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2143,21 +2176,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2169,7 +2202,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2182,18 +2215,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2202,14 +2235,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2219,7 +2252,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2242,21 +2275,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>24</v>
@@ -2268,14 +2301,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2285,14 +2318,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2301,14 +2334,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2318,14 +2351,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2341,7 +2374,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2351,11 +2384,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>22</v>
@@ -2367,7 +2400,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2380,18 +2413,18 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>136</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2407,24 +2440,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>140</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2433,31 +2466,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2466,66 +2499,198 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>146</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>32</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>42</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>144</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>149</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>32</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>42</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>150</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>152</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>153</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>42</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>150</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>155</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2726.1199999999999</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>145</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>146</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>147</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>42</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>78</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2839.79</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>156</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>157</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>158</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2749,10 +2914,30 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -479,7 +479,7 @@
     <t xml:space="preserve">كريم كازانوفا </t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 8:40 PM</t>
+    <t>Friday, 11 July, 2025 8:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -125,6 +125,18 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
   </si>
   <si>
@@ -308,9 +320,6 @@
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>MULTI-RELAX 10MG 20 F.C.TAB</t>
   </si>
   <si>
@@ -479,7 +488,7 @@
     <t xml:space="preserve">كريم كازانوفا </t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 8:44 PM</t>
+    <t>Friday, 11 July, 2025 8:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1351,7 +1360,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1361,14 +1370,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1377,7 +1386,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1390,7 +1399,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1417,24 +1426,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1443,14 +1452,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1483,24 +1492,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1509,31 +1518,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1542,14 +1551,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1559,11 +1568,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1599,7 +1608,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1615,7 +1624,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1625,14 +1634,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1641,14 +1650,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1658,14 +1667,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1674,14 +1683,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1691,14 +1700,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1707,14 +1716,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1724,14 +1733,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1740,14 +1749,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1757,11 +1766,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>24</v>
@@ -1773,14 +1782,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1813,7 +1822,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1823,14 +1832,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1839,7 +1848,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1856,14 +1865,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1872,14 +1881,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1889,11 +1898,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>24</v>
@@ -1905,14 +1914,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1922,11 +1931,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>24</v>
@@ -1938,7 +1947,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1955,14 +1964,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1971,28 +1980,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2004,28 +2013,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2044,7 +2053,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2077,7 +2086,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2094,7 +2103,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2110,7 +2119,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2143,7 +2152,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2153,14 +2162,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2182,15 +2191,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2209,24 +2218,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2242,7 +2251,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2252,14 +2261,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2268,31 +2277,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2308,13 +2317,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2325,7 +2334,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2341,7 +2350,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2351,14 +2360,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2367,14 +2376,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2384,14 +2393,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2407,7 +2416,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2424,7 +2433,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2440,7 +2449,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2450,14 +2459,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2466,14 +2475,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2483,11 +2492,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2506,7 +2515,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2516,14 +2525,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2532,31 +2541,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>148</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2578,18 +2587,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q51" s="12">
         <v>151</v>
-      </c>
-      <c t="s" r="Q51" s="12">
-        <v>116</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2605,24 +2614,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2638,59 +2647,92 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>158</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
         <v>24</v>
       </c>
-    </row>
-    <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2839.79</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>156</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
-        <v>157</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
-        <v>158</v>
-      </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>46</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>82</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2865.5300000000002</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>159</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>160</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>161</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2934,10 +2976,15 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -488,7 +488,7 @@
     <t xml:space="preserve">كريم كازانوفا </t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 8:45 PM</t>
+    <t>Friday, 11 July, 2025 8:47 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -188,6 +188,18 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -293,6 +305,15 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
     <t>HERO BABY 2 MILK 400 GM</t>
   </si>
   <si>
@@ -461,10 +482,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>20:0</t>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>25:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -488,7 +509,7 @@
     <t xml:space="preserve">كريم كازانوفا </t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 8:47 PM</t>
+    <t>Friday, 11 July, 2025 8:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1568,14 +1589,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1584,14 +1605,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1601,11 +1622,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1641,7 +1662,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1657,7 +1678,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1667,14 +1688,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1683,14 +1704,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1700,14 +1721,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1716,14 +1737,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1733,14 +1754,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1749,14 +1770,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1766,14 +1787,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1782,14 +1803,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1799,11 +1820,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>24</v>
@@ -1815,14 +1836,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1855,7 +1876,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1865,14 +1886,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1881,7 +1902,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1898,14 +1919,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1914,14 +1935,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1931,11 +1952,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>24</v>
@@ -1947,14 +1968,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1964,11 +1985,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>24</v>
@@ -1980,14 +2001,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1997,14 +2018,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2013,31 +2034,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2046,14 +2067,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2063,11 +2084,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2079,7 +2100,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2092,15 +2113,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2112,14 +2133,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2129,14 +2150,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2145,14 +2166,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2162,14 +2183,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2178,14 +2199,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2199,10 +2220,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2211,31 +2232,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2244,14 +2265,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2261,14 +2282,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2277,28 +2298,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2310,31 +2331,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2343,14 +2364,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2360,11 +2381,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2376,28 +2397,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>24</v>
@@ -2409,14 +2430,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2426,14 +2447,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2442,14 +2463,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2459,11 +2480,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>24</v>
@@ -2475,14 +2496,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2492,14 +2513,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2508,14 +2529,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2525,14 +2546,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2541,14 +2562,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2558,14 +2579,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2581,24 +2602,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>151</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2614,24 +2635,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>119</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2640,14 +2661,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2657,14 +2678,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2673,14 +2694,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2690,49 +2711,115 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>162</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>163</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>46</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>160</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>165</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
         <v>24</v>
       </c>
-    </row>
-    <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>2865.5300000000002</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
-        <v>159</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
-        <v>160</v>
-      </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
-        <v>161</v>
-      </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>46</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>86</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>3084.5300000000002</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>166</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>167</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>168</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2981,10 +3068,20 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -509,7 +509,7 @@
     <t xml:space="preserve">كريم كازانوفا </t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 8:48 PM</t>
+    <t>Friday, 11 July, 2025 8:50 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -131,9 +143,6 @@
     <t>1:2</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
@@ -191,9 +200,6 @@
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
-    <t>1:4</t>
-  </si>
-  <si>
     <t>85.00</t>
   </si>
   <si>
@@ -482,10 +488,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>25:0</t>
+    <t>26:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -509,7 +512,7 @@
     <t xml:space="preserve">كريم كازانوفا </t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 8:50 PM</t>
+    <t>Friday, 11 July, 2025 8:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1226,14 +1229,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1249,7 +1252,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1259,14 +1262,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1275,14 +1278,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1292,14 +1295,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1308,14 +1311,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1332,7 +1335,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1348,7 +1351,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1358,14 +1361,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1374,14 +1377,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1398,7 +1401,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1414,7 +1417,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1424,14 +1427,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1447,24 +1450,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1473,20 +1476,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1497,7 +1500,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1513,7 +1516,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1523,11 +1526,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1539,20 +1542,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1563,7 +1566,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1579,24 +1582,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1605,14 +1608,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1622,14 +1625,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1655,11 +1658,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1671,14 +1674,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1688,14 +1691,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1704,14 +1707,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1721,14 +1724,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1737,14 +1740,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1754,14 +1757,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1770,14 +1773,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1787,14 +1790,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1803,14 +1806,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1820,14 +1823,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1836,14 +1839,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1853,14 +1856,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1869,14 +1872,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1886,14 +1889,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1902,14 +1905,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1919,14 +1922,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1935,14 +1938,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1952,14 +1955,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1968,14 +1971,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1985,14 +1988,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2001,14 +2004,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2018,14 +2021,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2034,14 +2037,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2051,14 +2054,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2067,14 +2070,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2084,14 +2087,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2107,21 +2110,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2133,28 +2136,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2166,14 +2169,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2183,11 +2186,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2199,14 +2202,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2216,14 +2219,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2232,14 +2235,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2249,14 +2252,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2265,14 +2268,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2282,14 +2285,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2298,28 +2301,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2331,31 +2334,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2364,14 +2367,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2381,14 +2384,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2404,24 +2407,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2430,31 +2433,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2463,14 +2466,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2480,14 +2483,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2503,7 +2506,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2513,14 +2516,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2529,14 +2532,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2546,14 +2549,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2562,14 +2565,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2579,14 +2582,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2602,7 +2605,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2612,11 +2615,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2628,14 +2631,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2645,14 +2648,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2661,31 +2664,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>158</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2694,31 +2697,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>126</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2727,31 +2730,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2760,66 +2763,99 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>86</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>87</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>3084.5300000000002</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
         <v>166</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>28</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>49</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>88</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>3099.0100000000002</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
         <v>167</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
         <v>168</v>
       </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>169</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3078,10 +3114,15 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -410,6 +410,9 @@
     <t>158.4000</t>
   </si>
   <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
     <t>SIRDALUD 4MG 20 TAB</t>
   </si>
   <si>
@@ -449,6 +452,12 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>VISCERA 10MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
     <t>VITACID C 1GM 12 EFF. TAB.</t>
   </si>
   <si>
@@ -497,7 +506,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
+    <t>12.0000</t>
   </si>
   <si>
     <t>سرنجات دواء 5 سم</t>
@@ -512,7 +521,7 @@
     <t xml:space="preserve">كريم كازانوفا </t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 8:51 PM</t>
+    <t>Friday, 11 July, 2025 8:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2407,7 +2416,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2417,14 +2426,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2433,31 +2442,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2466,31 +2475,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2499,14 +2508,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2516,14 +2525,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2532,14 +2541,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2549,14 +2558,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2565,14 +2574,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2582,14 +2591,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2598,14 +2607,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2615,14 +2624,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2631,14 +2640,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2648,14 +2657,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2664,14 +2673,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2681,14 +2690,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2697,31 +2706,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>159</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2730,31 +2739,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>128</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2763,14 +2772,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>36</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2780,14 +2789,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2796,14 +2805,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2813,49 +2822,115 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>166</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>167</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>49</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>164</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>169</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>28</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>49</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>88</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
         <v>89</v>
       </c>
-      <c t="s" r="Q57" s="12">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>3099.0100000000002</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
-        <v>167</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
-        <v>168</v>
-      </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
-        <v>169</v>
-      </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c t="s" r="Q59" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>3183.0100000000002</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>170</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>171</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>172</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3119,10 +3194,20 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -521,7 +521,7 @@
     <t xml:space="preserve">كريم كازانوفا </t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 8:53 PM</t>
+    <t>Friday, 11 July, 2025 9:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -197,6 +197,15 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -365,6 +374,15 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>NAPHCOZOLE EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>NEOZOLID 250 MG 6 TABS.</t>
   </si>
   <si>
@@ -383,6 +401,21 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>111.3600</t>
+  </si>
+  <si>
+    <t>0:7</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -497,7 +530,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>26:0</t>
+    <t>30:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -521,7 +554,7 @@
     <t xml:space="preserve">كريم كازانوفا </t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 9:04 PM</t>
+    <t>Friday, 11 July, 2025 9:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1624,7 +1657,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1641,7 +1674,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1657,7 +1690,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1667,14 +1700,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1683,14 +1716,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1700,11 +1733,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1716,14 +1749,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1733,14 +1766,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1749,14 +1782,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1773,7 +1806,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1789,7 +1822,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1806,7 +1839,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1822,7 +1855,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1839,7 +1872,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1855,7 +1888,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1872,7 +1905,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1888,7 +1921,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1921,7 +1954,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1931,11 +1964,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>28</v>
@@ -1947,14 +1980,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1971,7 +2004,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>72</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2004,7 +2037,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2020,7 +2053,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2086,7 +2119,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2129,14 +2162,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2145,28 +2178,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2178,28 +2211,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2218,7 +2251,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2251,7 +2284,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2268,7 +2301,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2284,7 +2317,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2317,7 +2350,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2327,14 +2360,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2350,24 +2383,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2383,7 +2416,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2393,14 +2426,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>72</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2409,14 +2442,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2426,14 +2459,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2442,28 +2475,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2475,31 +2508,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2508,7 +2541,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2525,14 +2558,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2541,7 +2574,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2558,14 +2591,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2574,31 +2607,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2607,14 +2640,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2624,14 +2657,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2640,14 +2673,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2657,11 +2690,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>28</v>
@@ -2673,14 +2706,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2690,14 +2723,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2706,14 +2739,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2723,14 +2756,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2739,14 +2772,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>158</v>
+        <v>36</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2756,14 +2789,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2772,31 +2805,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>159</v>
+        <v>72</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>162</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2805,31 +2838,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2838,28 +2871,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>26</v>
@@ -2871,14 +2904,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2888,49 +2921,148 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>28</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>3183.0100000000002</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
-        <v>170</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
-        <v>171</v>
-      </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
-        <v>172</v>
-      </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>174</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>36</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>49</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>175</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>177</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>178</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>49</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>175</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>180</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>28</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>49</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>91</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>3337.5949999999998</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>181</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>182</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>183</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3204,10 +3336,25 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -554,7 +554,7 @@
     <t xml:space="preserve">كريم كازانوفا </t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 9:10 PM</t>
+    <t>Friday, 11 July, 2025 9:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -383,6 +383,15 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>NAPIZOLE 40MG 14CAP</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>NEOZOLID 250 MG 6 TABS.</t>
   </si>
   <si>
@@ -476,6 +485,15 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>TRITTICO 100MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>21.5000</t>
+  </si>
+  <si>
     <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
   </si>
   <si>
@@ -554,7 +572,7 @@
     <t xml:space="preserve">كريم كازانوفا </t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 9:11 PM</t>
+    <t>Friday, 11 July, 2025 9:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2356,7 +2374,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2383,7 +2401,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2416,7 +2434,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2426,14 +2444,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>134</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2442,14 +2460,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2459,14 +2477,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2488,15 +2506,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2515,24 +2533,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2548,7 +2566,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2558,14 +2576,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2574,14 +2592,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2591,14 +2609,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2607,31 +2625,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2647,13 +2665,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2664,7 +2682,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2680,7 +2698,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2690,14 +2708,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2706,14 +2724,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2723,14 +2741,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2746,7 +2764,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2760,10 +2778,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2772,14 +2790,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2789,14 +2807,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2805,14 +2823,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2822,14 +2840,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2838,14 +2856,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2855,14 +2873,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2871,14 +2889,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2888,14 +2906,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2904,31 +2922,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>173</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2944,24 +2962,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2970,14 +2988,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2987,14 +3005,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>179</v>
-      </c>
-      <c t="s" r="Q61" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3010,7 +3028,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3020,49 +3038,115 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>183</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>184</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>49</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>181</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>186</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>28</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>49</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>91</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
         <v>92</v>
       </c>
-      <c t="s" r="Q62" s="12">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>3337.5949999999998</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>181</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>182</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
-        <v>183</v>
-      </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c t="s" r="Q64" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>3421.0949999999998</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>187</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>188</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>189</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3351,10 +3435,20 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -470,6 +470,9 @@
     <t>129.0000</t>
   </si>
   <si>
+    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -572,7 +575,7 @@
     <t xml:space="preserve">كريم كازانوفا </t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 9:18 PM</t>
+    <t>Friday, 11 July, 2025 9:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2698,7 +2701,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2708,14 +2711,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2724,14 +2727,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2741,14 +2744,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2757,7 +2760,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2774,14 +2777,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2790,14 +2793,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2807,14 +2810,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2823,14 +2826,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2840,14 +2843,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2856,14 +2859,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2873,11 +2876,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>28</v>
@@ -2889,14 +2892,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2906,14 +2909,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2922,14 +2925,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2939,11 +2942,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>72</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2955,14 +2958,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2972,14 +2975,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2988,31 +2991,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>179</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3021,7 +3024,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3038,14 +3041,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3054,14 +3057,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>36</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3071,14 +3074,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3087,14 +3090,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3104,49 +3107,82 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>187</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>28</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>49</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>91</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
         <v>92</v>
       </c>
-      <c t="s" r="Q64" s="12">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>3421.0949999999998</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
-        <v>187</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
+      <c t="s" r="Q65" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>3460.0949999999998</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
         <v>188</v>
       </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
         <v>189</v>
       </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>190</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3445,10 +3481,15 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -347,6 +347,9 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>MENTOVAL DROPS</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -575,7 +578,7 @@
     <t xml:space="preserve">كريم كازانوفا </t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 9:32 PM</t>
+    <t>Friday, 11 July, 2025 9:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2206,24 +2209,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2232,28 +2235,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2272,21 +2275,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2298,14 +2301,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2315,11 +2318,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2331,14 +2334,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2348,14 +2351,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2364,7 +2367,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2377,15 +2380,15 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>28</v>
@@ -2397,7 +2400,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2410,15 +2413,15 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>28</v>
@@ -2430,14 +2433,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2447,11 +2450,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>28</v>
@@ -2463,14 +2466,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2480,14 +2483,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>137</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2496,14 +2499,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2513,14 +2516,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2529,28 +2532,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2562,31 +2565,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2595,14 +2598,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2612,14 +2615,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2635,7 +2638,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2645,14 +2648,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2661,31 +2664,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2694,28 +2697,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>28</v>
@@ -2734,7 +2737,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2744,14 +2747,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2760,14 +2763,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2777,14 +2780,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2793,7 +2796,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2810,14 +2813,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2826,14 +2829,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2843,14 +2846,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2859,14 +2862,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2876,14 +2879,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2892,14 +2895,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2909,11 +2912,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>28</v>
@@ -2925,14 +2928,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>36</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2942,14 +2945,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2958,14 +2961,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2975,11 +2978,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>72</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -2991,14 +2994,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3008,14 +3011,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3024,31 +3027,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>180</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3057,7 +3060,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3074,14 +3077,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3090,14 +3093,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>185</v>
+        <v>36</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3107,14 +3110,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3123,14 +3126,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>28</v>
+        <v>186</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3140,49 +3143,82 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>188</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>28</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>49</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>91</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
         <v>92</v>
       </c>
-      <c t="s" r="Q65" s="12">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>3460.0949999999998</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
-        <v>188</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
+      <c t="s" r="Q66" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>3520.0949999999998</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
         <v>189</v>
       </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
         <v>190</v>
       </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>191</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3486,10 +3522,15 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -551,6 +551,18 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -575,10 +587,19 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">كريم كازانوفا </t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 9:45 PM</t>
+    <t>Friday, 11 July, 2025 9:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2209,7 +2230,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -3067,7 +3088,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>36</v>
+        <v>181</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3077,14 +3098,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>181</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3093,7 +3114,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3110,14 +3131,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3126,14 +3147,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>186</v>
+        <v>36</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3143,14 +3164,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3159,14 +3180,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3176,49 +3197,115 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>192</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>193</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>49</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>194</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>195</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>28</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>49</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>91</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
         <v>92</v>
       </c>
-      <c t="s" r="Q66" s="12">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>3520.0949999999998</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>189</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
-        <v>190</v>
-      </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
-        <v>191</v>
-      </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c t="s" r="Q68" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>3562.0949999999998</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>196</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>197</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>198</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3527,10 +3614,20 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>AQUA PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -119,9 +131,6 @@
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>64.00</t>
   </si>
   <si>
@@ -176,6 +185,15 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
     <t>CORASORE 150MG 20 TAB</t>
   </si>
   <si>
@@ -347,6 +365,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>MEMEXA 10MG 30F.C. TAB.</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
     <t>MENTOVAL DROPS</t>
   </si>
   <si>
@@ -479,12 +506,6 @@
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -599,7 +620,7 @@
     <t xml:space="preserve">كريم كازانوفا </t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 9:52 PM</t>
+    <t>Friday, 11 July, 2025 9:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1372,7 +1393,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1382,14 +1403,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1398,7 +1419,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1415,11 +1436,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>28</v>
@@ -1431,14 +1452,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1455,7 +1476,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1471,7 +1492,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1488,7 +1509,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1504,7 +1525,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1514,14 +1535,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1537,7 +1558,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1547,14 +1568,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1570,21 +1591,21 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>28</v>
@@ -1596,20 +1617,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1620,7 +1641,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1636,7 +1657,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1646,11 +1667,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1662,31 +1683,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1695,14 +1716,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1735,13 +1756,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1768,7 +1789,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1778,11 +1799,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1794,14 +1815,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1818,7 +1839,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1844,14 +1865,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1860,14 +1881,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1877,11 +1898,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1893,14 +1914,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1933,7 +1954,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1966,7 +1987,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1999,7 +2020,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2016,7 +2037,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2032,7 +2053,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2042,11 +2063,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>28</v>
@@ -2058,14 +2079,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2075,14 +2096,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2091,14 +2112,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2131,7 +2152,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2148,7 +2169,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>28</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2164,7 +2185,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2197,7 +2218,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2230,21 +2251,21 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>28</v>
@@ -2256,7 +2277,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2273,14 +2294,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2289,28 +2310,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2322,31 +2343,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2355,14 +2376,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2372,11 +2393,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2388,31 +2409,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2428,13 +2449,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2445,7 +2466,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2461,7 +2482,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2478,7 +2499,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2494,7 +2515,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2527,24 +2548,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>138</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2553,14 +2574,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2570,14 +2591,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2586,31 +2607,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2619,14 +2640,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2636,14 +2657,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>147</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>75</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2659,7 +2680,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2669,14 +2690,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2685,28 +2706,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2718,31 +2739,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>28</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2751,14 +2772,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2768,11 +2789,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>28</v>
@@ -2784,14 +2805,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2801,11 +2822,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2817,28 +2838,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>28</v>
@@ -2850,14 +2871,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2867,14 +2888,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2883,14 +2904,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2900,14 +2921,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2916,14 +2937,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2933,11 +2954,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>28</v>
@@ -2949,14 +2970,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2966,14 +2987,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2982,14 +3003,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2999,14 +3020,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3022,7 +3043,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3036,10 +3057,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3048,14 +3069,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>177</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3065,14 +3086,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3081,31 +3102,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3114,31 +3135,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>185</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3147,31 +3168,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3180,28 +3201,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>26</v>
@@ -3213,31 +3234,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>188</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>26</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3246,66 +3267,165 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>91</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>3562.0949999999998</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>196</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
         <v>197</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>52</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>194</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
         <v>198</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c t="s" r="Q69" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>199</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>200</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>52</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>201</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>202</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>28</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>52</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>97</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>3716.5349999999999</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>203</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>204</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>205</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3624,10 +3744,25 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -86,6 +86,21 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -95,9 +110,6 @@
     <t>93.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>APEXIDONE 4MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -137,6 +149,18 @@
     <t>128.0000</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
   </si>
   <si>
@@ -236,9 +260,6 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>DEXAZONE 0.5MG 60 TAB</t>
   </si>
   <si>
@@ -467,9 +488,6 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>27.0000</t>
   </si>
   <si>
@@ -620,7 +638,7 @@
     <t xml:space="preserve">كريم كازانوفا </t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 9:53 PM</t>
+    <t>Friday, 11 July, 2025 9:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1370,14 +1388,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1386,14 +1404,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1403,14 +1421,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1426,7 +1444,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1436,14 +1454,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1452,14 +1470,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1469,14 +1487,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1485,14 +1503,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1502,14 +1520,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1518,14 +1536,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1535,14 +1553,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1551,14 +1569,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1568,11 +1586,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1584,14 +1602,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1601,14 +1619,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1617,31 +1635,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1650,14 +1668,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1667,14 +1685,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1683,31 +1701,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1716,14 +1734,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1733,11 +1751,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1749,31 +1767,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1782,14 +1800,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1799,11 +1817,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1815,31 +1833,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1848,14 +1866,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1865,11 +1883,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1881,14 +1899,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1898,14 +1916,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1914,14 +1932,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1931,14 +1949,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1947,14 +1965,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1987,7 +2005,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1997,14 +2015,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2013,14 +2031,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2030,11 +2048,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2046,14 +2064,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2063,14 +2081,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2079,14 +2097,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2096,14 +2114,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2112,14 +2130,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2136,7 +2154,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2152,7 +2170,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2169,7 +2187,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>81</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2185,7 +2203,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2195,14 +2213,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2211,14 +2229,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2228,14 +2246,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>28</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2244,14 +2262,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2261,14 +2279,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2277,14 +2295,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2294,14 +2312,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2310,14 +2328,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2327,14 +2345,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2343,31 +2361,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2376,14 +2394,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2393,11 +2411,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2409,31 +2427,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2442,14 +2460,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2459,11 +2477,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2475,28 +2493,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2508,14 +2526,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2525,14 +2543,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2541,31 +2559,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2574,14 +2592,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2591,14 +2609,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2607,31 +2625,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2640,14 +2658,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2664,7 +2682,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>147</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2673,14 +2691,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2690,14 +2708,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2706,31 +2724,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2739,14 +2757,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2756,14 +2774,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2772,31 +2790,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2805,14 +2823,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2822,14 +2840,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2838,31 +2856,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2871,14 +2889,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2888,14 +2906,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2904,31 +2922,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2937,14 +2955,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2954,14 +2972,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2970,14 +2988,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2987,11 +3005,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3003,14 +3021,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3020,14 +3038,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3043,7 +3061,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3057,10 +3075,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>64</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3069,14 +3087,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3086,14 +3104,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3102,14 +3120,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3119,14 +3137,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3135,14 +3153,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3152,14 +3170,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3168,14 +3186,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3185,14 +3203,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>85</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3201,31 +3219,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>188</v>
+        <v>84</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3234,31 +3252,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>192</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3274,24 +3292,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3300,31 +3318,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>197</v>
+        <v>34</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q69" s="12">
         <v>198</v>
-      </c>
-      <c t="s" r="Q69" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3340,24 +3358,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3373,59 +3391,125 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>28</v>
+        <v>203</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>98</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>3716.5349999999999</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>203</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
-        <v>204</v>
-      </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
         <v>205</v>
       </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>206</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>60</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>207</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>208</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>29</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>60</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>104</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>3767.2649999999999</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>209</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>210</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>211</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3759,10 +3843,20 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -638,7 +638,7 @@
     <t xml:space="preserve">كريم كازانوفا </t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 9:54 PM</t>
+    <t>Friday, 11 July, 2025 9:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -386,6 +386,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>KLENVA VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>MEMEXA 10MG 30F.C. TAB.</t>
   </si>
   <si>
@@ -524,6 +533,12 @@
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -638,7 +653,7 @@
     <t xml:space="preserve">كريم كازانوفا </t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 9:57 PM</t>
+    <t>Friday, 11 July, 2025 10:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2401,7 +2416,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2418,7 +2433,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2434,24 +2449,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2460,7 +2475,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2473,18 +2488,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2493,28 +2508,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2526,28 +2541,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2566,7 +2581,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2599,7 +2614,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2616,7 +2631,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2638,7 +2653,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2671,7 +2686,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2698,7 +2713,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2731,7 +2746,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2741,14 +2756,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>154</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2757,14 +2772,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2774,14 +2789,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2797,21 +2812,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2823,31 +2838,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2863,7 +2878,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2873,14 +2888,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2889,14 +2904,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2906,14 +2921,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2922,31 +2937,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2962,21 +2977,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>102</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>29</v>
@@ -2988,14 +3003,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3005,14 +3020,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3021,14 +3036,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3038,14 +3053,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3054,14 +3069,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3071,14 +3086,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3094,7 +3109,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3104,14 +3119,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>71</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3120,14 +3135,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3137,14 +3152,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3160,7 +3175,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3177,7 +3192,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3193,7 +3208,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3203,14 +3218,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3226,7 +3241,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3243,7 +3258,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3269,14 +3284,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3285,31 +3300,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>84</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3318,31 +3333,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>62</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>198</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3351,14 +3366,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3375,7 +3390,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3391,7 +3406,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>203</v>
+        <v>34</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3401,14 +3416,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>31</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3417,14 +3432,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>34</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3434,14 +3449,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3450,14 +3465,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3467,49 +3482,115 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>210</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>211</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>60</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>212</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>213</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>29</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>60</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>104</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
         <v>105</v>
       </c>
-      <c t="s" r="Q73" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>3767.2649999999999</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
-        <v>209</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
-        <v>210</v>
-      </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
-        <v>211</v>
-      </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c t="s" r="Q75" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>3898.2649999999999</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>214</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>215</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>216</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3853,10 +3934,20 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -209,15 +209,6 @@
     <t>22.7700</t>
   </si>
   <si>
-    <t>COLOVERIN D 135MG 30 TAB</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
     <t>CORASORE 150MG 20 TAB</t>
   </si>
   <si>
@@ -653,7 +644,7 @@
     <t xml:space="preserve">كريم كازانوفا </t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 10:02 PM</t>
+    <t>Friday, 11 July, 2025 10:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1789,7 +1780,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1799,11 +1790,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1815,20 +1806,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1839,7 +1830,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1855,13 +1846,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1872,7 +1863,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1888,7 +1879,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1905,7 +1896,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1921,7 +1912,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1931,14 +1922,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1947,14 +1938,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1964,11 +1955,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1980,14 +1971,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1997,14 +1988,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2013,14 +2004,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2037,7 +2028,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2053,7 +2044,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2070,7 +2061,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2086,7 +2077,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2103,7 +2094,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2119,7 +2110,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2136,7 +2127,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2152,7 +2143,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2185,7 +2176,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2195,11 +2186,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>29</v>
@@ -2211,14 +2202,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2235,7 +2226,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2268,7 +2259,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>88</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2284,7 +2275,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2350,7 +2341,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2383,7 +2374,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2416,7 +2407,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2433,7 +2424,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2449,24 +2440,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2475,7 +2466,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2488,18 +2479,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2508,28 +2499,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2541,28 +2532,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2581,7 +2572,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2614,7 +2605,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2631,7 +2622,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2653,7 +2644,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2686,7 +2677,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2713,7 +2704,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2746,7 +2737,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2756,14 +2747,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2772,14 +2763,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2789,14 +2780,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2812,21 +2803,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2838,31 +2829,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2878,7 +2869,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2888,14 +2879,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>88</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2904,14 +2895,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2921,14 +2912,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2937,31 +2928,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2977,21 +2968,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>29</v>
@@ -3003,14 +2994,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3020,14 +3011,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3036,7 +3027,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3053,14 +3044,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3069,14 +3060,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3086,14 +3077,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3102,7 +3093,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3119,14 +3110,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3142,7 +3133,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3159,7 +3150,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3175,7 +3166,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3189,10 +3180,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3201,14 +3192,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3218,11 +3209,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>29</v>
@@ -3241,7 +3232,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>187</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3251,14 +3242,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3267,14 +3258,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>190</v>
+        <v>81</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3284,11 +3275,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3307,7 +3298,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3317,14 +3308,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3333,28 +3324,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>31</v>
@@ -3366,14 +3357,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>199</v>
+        <v>34</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3383,14 +3374,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>31</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3399,7 +3390,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3416,14 +3407,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>62</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>203</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3439,7 +3430,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>34</v>
+        <v>205</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3449,14 +3440,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3482,11 +3473,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>31</v>
@@ -3505,7 +3496,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3515,82 +3506,49 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>206</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
-      <c r="A75" s="7">
-        <v>69</v>
-      </c>
-      <c r="B75" s="7"/>
-      <c t="s" r="C75" s="8">
+      <c r="P75" s="13">
+        <v>3863.6149999999998</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>211</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>212</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
         <v>213</v>
       </c>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c t="s" r="H75" s="9">
-        <v>29</v>
-      </c>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c t="s" r="L75" s="10">
-        <v>60</v>
-      </c>
-      <c r="M75" s="10"/>
-      <c t="s" r="N75" s="8">
-        <v>104</v>
-      </c>
-      <c r="O75" s="8"/>
-      <c t="s" r="P75" s="11">
-        <v>105</v>
-      </c>
-      <c t="s" r="Q75" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>3898.2649999999999</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>214</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
-        <v>215</v>
-      </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
-        <v>216</v>
-      </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3939,15 +3897,10 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -644,7 +644,7 @@
     <t xml:space="preserve">كريم كازانوفا </t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 10:04 PM</t>
+    <t>Friday, 11 July, 2025 10:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -245,7 +245,7 @@
     <t>85.00</t>
   </si>
   <si>
-    <t>85.0000</t>
+    <t>153.0000</t>
   </si>
   <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
@@ -644,7 +644,7 @@
     <t xml:space="preserve">كريم كازانوفا </t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 10:06 PM</t>
+    <t>Friday, 11 July, 2025 10:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1879,7 +1879,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1896,7 +1896,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -3518,7 +3518,7 @@
     </row>
     <row r="75" ht="24.75" customHeight="1">
       <c r="P75" s="13">
-        <v>3863.6149999999998</v>
+        <v>3931.6149999999998</v>
       </c>
       <c r="Q75" s="13"/>
     </row>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -242,10 +242,13 @@
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
+    <t>2:3</t>
+  </si>
+  <si>
     <t>85.00</t>
   </si>
   <si>
-    <t>153.0000</t>
+    <t>17.0000</t>
   </si>
   <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
@@ -254,327 +257,330 @@
     <t>DEXAZONE 0.5MG 60 TAB</t>
   </si>
   <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>67.8300</t>
+  </si>
+  <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>51.00</t>
+    <t>DIACEREIN 50MG 30 CAP.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DOXIPROCT PLUS RECTAL OINT. 30 GM</t>
+  </si>
+  <si>
+    <t>26.50</t>
+  </si>
+  <si>
+    <t>26.5000</t>
+  </si>
+  <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>DROPIFLOX OTIC DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>DULOXEPRIN 30MG 28 CAPSULES</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>EUTHYROX 100MCG 50 TAB.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>KLENVA VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>MEMEXA 10MG 30F.C. TAB.</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
+    <t>MENTOVAL DROPS</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>MULTI-RELAX 10MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>NAPHCOZOLE EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>NAPIZOLE 40MG 14CAP</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>NEOZOLID 250 MG 6 TABS.</t>
+  </si>
+  <si>
+    <t>36.50</t>
+  </si>
+  <si>
+    <t>36.5000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>111.3600</t>
+  </si>
+  <si>
+    <t>0:7</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>REGIMAX 120MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>158.4000</t>
+  </si>
+  <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>SIRDALUD 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>SORAL 30 MG 30CAPS</t>
+  </si>
+  <si>
+    <t>129.00</t>
+  </si>
+  <si>
+    <t>129.0000</t>
+  </si>
+  <si>
+    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>TRITTICO 100MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>21.5000</t>
+  </si>
+  <si>
+    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>VISCERA 10MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>VITACID C 1GM 12 EFF. TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
   </si>
   <si>
     <t>16.8300</t>
   </si>
   <si>
-    <t>DIACEREIN 50MG 30 CAP.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>156.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DOXIPROCT PLUS RECTAL OINT. 30 GM</t>
-  </si>
-  <si>
-    <t>26.50</t>
-  </si>
-  <si>
-    <t>26.5000</t>
-  </si>
-  <si>
-    <t>DRAMENEX 50MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>DROPIFLOX OTIC DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>DULOXEPRIN 30MG 28 CAPSULES</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>EUTHYROX 100MCG 50 TAB.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>17.2800</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>KLENVA VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>MEMEXA 10MG 30F.C. TAB.</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>78.2100</t>
-  </si>
-  <si>
-    <t>MENTOVAL DROPS</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>MULTI-RELAX 10MG 20 F.C.TAB</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>NAPHCOZOLE EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>NAPIZOLE 40MG 14CAP</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>NEOZOLID 250 MG 6 TABS.</t>
-  </si>
-  <si>
-    <t>36.50</t>
-  </si>
-  <si>
-    <t>36.5000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>111.3600</t>
-  </si>
-  <si>
-    <t>0:7</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>REGIMAX 120MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>158.4000</t>
-  </si>
-  <si>
-    <t>REPARIL-GEL N 40 GM</t>
-  </si>
-  <si>
-    <t>SIRDALUD 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>SORAL 30 MG 30CAPS</t>
-  </si>
-  <si>
-    <t>129.00</t>
-  </si>
-  <si>
-    <t>129.0000</t>
-  </si>
-  <si>
-    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>TREFLUCAN 150MG 1 CAPS.</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>TRITTICO 100MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>21.5000</t>
-  </si>
-  <si>
-    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>VISCERA 10MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>VITACID C 1GM 12 EFF. TAB.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -641,10 +647,19 @@
     <t>6.00</t>
   </si>
   <si>
+    <t xml:space="preserve">شامبو بانتين 190 مللي </t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كريم كازانوفا </t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 10:08 PM</t>
+    <t>Friday, 11 July, 2025 10:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1879,7 +1894,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1889,14 +1904,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1905,7 +1920,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1938,14 +1953,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1962,7 +1977,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1971,14 +1986,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1988,11 +2003,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>29</v>
@@ -2004,7 +2019,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2021,11 +2036,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2037,7 +2052,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2054,11 +2069,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>29</v>
@@ -2070,14 +2085,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2087,11 +2102,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2103,7 +2118,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2120,11 +2135,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>29</v>
@@ -2136,7 +2151,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2153,11 +2168,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>29</v>
@@ -2169,14 +2184,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2186,11 +2201,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>29</v>
@@ -2202,7 +2217,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2219,14 +2234,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2235,7 +2250,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2252,11 +2267,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>29</v>
@@ -2268,7 +2283,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2285,11 +2300,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>29</v>
@@ -2301,7 +2316,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2318,11 +2333,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>29</v>
@@ -2334,7 +2349,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2351,11 +2366,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>29</v>
@@ -2367,7 +2382,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2384,11 +2399,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>29</v>
@@ -2400,7 +2415,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2417,11 +2432,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2433,7 +2448,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2466,7 +2481,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2483,11 +2498,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2499,14 +2514,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2520,7 +2535,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2532,7 +2547,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2549,11 +2564,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2565,14 +2580,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2582,11 +2597,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2598,7 +2613,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2615,11 +2630,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>29</v>
@@ -2631,7 +2646,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2648,11 +2663,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>29</v>
@@ -2664,7 +2679,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2681,11 +2696,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>29</v>
@@ -2697,7 +2712,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2714,11 +2729,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>29</v>
@@ -2730,14 +2745,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2747,14 +2762,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2763,14 +2778,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2780,7 +2795,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2796,7 +2811,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2813,11 +2828,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2829,14 +2844,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2846,14 +2861,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2862,7 +2877,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2879,11 +2894,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>29</v>
@@ -2895,7 +2910,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2912,11 +2927,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2928,14 +2943,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2945,11 +2960,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>29</v>
@@ -2961,7 +2976,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2978,11 +2993,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>29</v>
@@ -2994,7 +3009,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3027,7 +3042,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3044,11 +3059,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>31</v>
@@ -3060,7 +3075,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3081,7 +3096,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>29</v>
@@ -3093,7 +3108,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3110,11 +3125,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3126,7 +3141,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3143,11 +3158,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>31</v>
@@ -3159,7 +3174,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3176,7 +3191,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3192,7 +3207,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3209,11 +3224,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>29</v>
@@ -3225,14 +3240,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3246,7 +3261,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3258,14 +3273,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3275,11 +3290,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3291,14 +3306,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3308,11 +3323,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>31</v>
@@ -3324,14 +3339,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3341,11 +3356,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>31</v>
@@ -3357,7 +3372,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3374,14 +3389,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>62</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3390,7 +3405,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3407,11 +3422,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3423,14 +3438,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3440,11 +3455,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>31</v>
@@ -3456,14 +3471,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3473,11 +3488,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>31</v>
@@ -3489,14 +3504,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3506,49 +3521,82 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>101</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>215</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>29</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>60</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
         <v>102</v>
       </c>
-      <c t="s" r="Q74" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>3931.6149999999998</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
-        <v>211</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
-        <v>212</v>
-      </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
-        <v>213</v>
-      </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>3946.6149999999998</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>216</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>217</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>218</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3897,10 +3945,15 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -110,6 +110,12 @@
     <t>93.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>APEXIDONE 4MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -191,9 +197,6 @@
     <t>CERELAC تمر وقمح ولبن</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -605,13 +608,19 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>22:0</t>
+    <t>21:0</t>
   </si>
   <si>
     <t>15.00</t>
   </si>
   <si>
-    <t>30.0000</t>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -626,27 +635,30 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>65:0</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
     <t>12.0000</t>
   </si>
   <si>
-    <t>سرنجات دواء 5 سم</t>
-  </si>
-  <si>
-    <t>65:0</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>21:0</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">شامبو بانتين 190 مللي </t>
   </si>
   <si>
@@ -656,10 +668,19 @@
     <t>100.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t xml:space="preserve">كريم كازانوفا </t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 10:15 PM</t>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>Friday, 11 July, 2025 10:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1465,21 +1486,21 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1491,14 +1512,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1508,14 +1529,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1524,7 +1545,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1541,11 +1562,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>29</v>
@@ -1557,14 +1578,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1574,14 +1595,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1590,14 +1611,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1607,14 +1628,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1623,14 +1644,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1640,14 +1661,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1656,14 +1677,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1673,14 +1694,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1689,14 +1710,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1706,14 +1727,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1722,28 +1743,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>29</v>
@@ -1755,31 +1776,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1788,14 +1809,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1805,11 +1826,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1821,31 +1842,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1854,31 +1875,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1887,14 +1908,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1904,11 +1925,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1920,14 +1941,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1937,11 +1958,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1960,7 +1981,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1970,14 +1991,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1986,14 +2007,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2003,14 +2024,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2019,14 +2040,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2036,14 +2057,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2052,14 +2073,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2069,14 +2090,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2085,14 +2106,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2102,14 +2123,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2118,14 +2139,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2135,14 +2156,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2151,14 +2172,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2168,11 +2189,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>29</v>
@@ -2184,14 +2205,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2201,11 +2222,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>29</v>
@@ -2217,14 +2238,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2234,14 +2255,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>86</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2250,7 +2271,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2267,14 +2288,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2283,14 +2304,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2300,11 +2321,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>29</v>
@@ -2316,14 +2337,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2333,11 +2354,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>29</v>
@@ -2349,14 +2370,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2366,11 +2387,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>29</v>
@@ -2382,14 +2403,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2399,11 +2420,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>29</v>
@@ -2415,14 +2436,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2432,14 +2453,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2448,31 +2469,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2494,18 +2515,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2514,28 +2535,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2554,21 +2575,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2580,14 +2601,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2597,11 +2618,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2613,14 +2634,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2630,14 +2651,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2646,28 +2667,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>29</v>
@@ -2679,28 +2700,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>29</v>
@@ -2712,14 +2733,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2729,11 +2750,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>29</v>
@@ -2745,14 +2766,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2762,14 +2783,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>155</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2778,14 +2799,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2795,14 +2816,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2811,28 +2832,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2844,31 +2865,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2877,14 +2898,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2894,14 +2915,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2917,7 +2938,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2927,14 +2948,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2943,31 +2964,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2976,28 +2997,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>29</v>
@@ -3016,7 +3037,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3026,14 +3047,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3059,14 +3080,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3075,14 +3096,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3092,14 +3113,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3108,7 +3129,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3125,14 +3146,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>69</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3141,14 +3162,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3158,14 +3179,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3174,14 +3195,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3191,14 +3212,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3207,14 +3228,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3224,11 +3245,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>29</v>
@@ -3240,14 +3261,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>188</v>
+        <v>36</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3257,14 +3278,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3273,14 +3294,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3290,11 +3311,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3306,14 +3327,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>85</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3323,14 +3344,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3339,28 +3360,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>31</v>
@@ -3372,31 +3393,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>202</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3405,31 +3426,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3438,31 +3459,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>36</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>31</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3471,31 +3492,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>36</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>31</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3504,31 +3525,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>34</v>
+        <v>211</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3537,66 +3558,198 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>102</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>216</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>36</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>34</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>217</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>219</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>36</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>34</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>200</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>220</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>29</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>34</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
         <v>103</v>
       </c>
-      <c t="s" r="Q75" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>3946.6149999999998</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>216</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
-        <v>217</v>
-      </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
-        <v>218</v>
-      </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>221</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>222</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>34</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>27</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>4036.0949999999998</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>223</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>224</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>225</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3950,10 +4103,30 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -356,6 +356,9 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>GAPTIN 100 MG 30 CAPS.</t>
+  </si>
+  <si>
     <t>GYNERA 21 C.TABS</t>
   </si>
   <si>
@@ -404,6 +407,9 @@
     <t>MENTOVAL DROPS</t>
   </si>
   <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -506,9 +512,18 @@
     <t>158.4000</t>
   </si>
   <si>
+    <t>RELAX CREAM 50 GM</t>
+  </si>
+  <si>
     <t>REPARIL-GEL N 40 GM</t>
   </si>
   <si>
+    <t>SIRDALUD 2MG 20 TAB</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
     <t>SIRDALUD 4MG 20 TAB</t>
   </si>
   <si>
@@ -569,19 +584,13 @@
     <t>VITACID C 1GM 12 EFF. TAB.</t>
   </si>
   <si>
-    <t>54.00</t>
-  </si>
-  <si>
     <t>54.0000</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>16.8300</t>
+    <t>2:2</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
@@ -626,7 +635,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>30:0</t>
+    <t>33:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -680,7 +689,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 10:16 PM</t>
+    <t>Friday, 11 July, 2025 10:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2344,7 +2353,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2354,14 +2363,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2370,7 +2379,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2387,11 +2396,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>29</v>
@@ -2403,14 +2412,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2420,11 +2429,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>29</v>
@@ -2436,14 +2445,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2453,11 +2462,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>29</v>
@@ -2469,14 +2478,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2486,14 +2495,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2502,31 +2511,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2548,18 +2557,18 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2568,31 +2577,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2601,14 +2610,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2618,11 +2627,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2634,28 +2643,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2667,14 +2676,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2684,14 +2693,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2700,31 +2709,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2733,7 +2742,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2750,11 +2759,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>29</v>
@@ -2766,28 +2775,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>29</v>
@@ -2799,14 +2808,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2816,14 +2825,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>156</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2832,14 +2841,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2849,14 +2858,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2865,31 +2874,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2898,14 +2907,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2915,14 +2924,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2931,31 +2940,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2964,14 +2973,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2981,14 +2990,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2997,28 +3006,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>29</v>
@@ -3030,14 +3039,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3047,11 +3056,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>29</v>
@@ -3063,14 +3072,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3080,11 +3089,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3096,14 +3105,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3113,14 +3122,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3129,28 +3138,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>29</v>
@@ -3162,14 +3171,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3179,14 +3188,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3195,14 +3204,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3212,14 +3221,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3228,14 +3237,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3245,14 +3254,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3261,14 +3270,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3278,11 +3287,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>29</v>
@@ -3294,14 +3303,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3311,11 +3320,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3327,14 +3336,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3344,14 +3353,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3360,14 +3369,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3377,14 +3386,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3393,31 +3402,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>199</v>
+        <v>36</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>41</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3426,31 +3435,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>83</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3459,31 +3468,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3492,31 +3501,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>209</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3525,14 +3534,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3542,14 +3551,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3558,14 +3567,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>199</v>
+        <v>36</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3575,14 +3584,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3591,7 +3600,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3608,14 +3617,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3624,7 +3633,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3641,14 +3650,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3657,14 +3666,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>29</v>
+        <v>214</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3674,14 +3683,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>104</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3690,14 +3699,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3707,49 +3716,181 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>219</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>36</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>34</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>220</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>222</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>36</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>34</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>203</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>223</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>29</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>34</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>103</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>224</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>225</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>34</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>27</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
         <v>28</v>
       </c>
-      <c t="s" r="Q79" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>4036.0949999999998</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
-        <v>223</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
-        <v>224</v>
-      </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
-        <v>225</v>
-      </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c t="s" r="Q83" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>4245.8249999999998</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>226</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>227</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>228</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4123,10 +4264,30 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -83,39 +83,45 @@
     <t>78.00</t>
   </si>
   <si>
+    <t>24.9600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>12.4800</t>
   </si>
   <si>
-    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>93.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTODINE20    6 AMP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>APEXIDONE 4MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -272,9 +278,6 @@
     <t>DIACEREIN 50MG 30 CAP.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>156.00</t>
   </si>
   <si>
@@ -635,7 +638,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>33:0</t>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>34:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -689,7 +695,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 10:19 PM</t>
+    <t>Friday, 11 July, 2025 10:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1413,7 +1419,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1422,14 +1428,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1439,14 +1445,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1455,14 +1461,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1476,10 +1482,10 @@
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1488,20 +1494,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1509,7 +1515,7 @@
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1521,14 +1527,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1538,11 +1544,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1554,14 +1560,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1571,14 +1577,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1587,14 +1593,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1604,14 +1610,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1620,14 +1626,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1637,14 +1643,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1653,14 +1659,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1670,11 +1676,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1686,14 +1692,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1703,14 +1709,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1719,14 +1725,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1740,7 +1746,7 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1752,14 +1758,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1769,14 +1775,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1785,31 +1791,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1818,7 +1824,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1835,11 +1841,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1851,14 +1857,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1868,11 +1874,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1884,31 +1890,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1917,14 +1923,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1934,11 +1940,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1950,14 +1956,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1967,11 +1973,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1983,14 +1989,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2016,7 +2022,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2033,14 +2039,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2049,14 +2055,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2066,14 +2072,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2082,7 +2088,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2099,11 +2105,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2115,14 +2121,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2132,14 +2138,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2148,14 +2154,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2165,11 +2171,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2181,14 +2187,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2198,14 +2204,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2214,7 +2220,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2231,14 +2237,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2247,14 +2253,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2264,14 +2270,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2280,14 +2286,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2297,14 +2303,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>87</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2313,14 +2319,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2330,14 +2336,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2346,14 +2352,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2363,11 +2369,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2379,14 +2385,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2396,14 +2402,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2412,14 +2418,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2429,14 +2435,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2445,14 +2451,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2462,14 +2468,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2478,14 +2484,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2495,14 +2501,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2511,7 +2517,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2528,11 +2534,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2544,31 +2550,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2577,14 +2583,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2594,14 +2600,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2610,14 +2616,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2627,11 +2633,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2643,20 +2649,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2664,7 +2670,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2676,7 +2682,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2693,11 +2699,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2709,14 +2715,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2726,11 +2732,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2742,14 +2748,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2759,14 +2765,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2775,31 +2781,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2808,14 +2814,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2825,14 +2831,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2841,14 +2847,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2858,14 +2864,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2874,14 +2880,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2891,14 +2897,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2907,14 +2913,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2924,11 +2930,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2940,28 +2946,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2973,14 +2979,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2990,14 +2996,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>87</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3006,14 +3012,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3023,14 +3029,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3039,14 +3045,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3056,14 +3062,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3072,14 +3078,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3089,11 +3095,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3105,7 +3111,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3122,11 +3128,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3138,31 +3144,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3171,14 +3177,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3188,14 +3194,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3204,14 +3210,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3221,11 +3227,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3237,14 +3243,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3254,14 +3260,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3270,7 +3276,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3287,14 +3293,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3303,7 +3309,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3320,11 +3326,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3336,14 +3342,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3353,14 +3359,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3369,7 +3375,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3386,14 +3392,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3402,14 +3408,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3419,14 +3425,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3435,14 +3441,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3452,14 +3458,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3468,14 +3474,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3485,11 +3491,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3501,14 +3507,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3518,14 +3524,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3534,31 +3540,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3567,31 +3573,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3600,31 +3606,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3633,31 +3639,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3666,31 +3672,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3699,31 +3705,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3732,31 +3738,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3765,31 +3771,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3798,31 +3804,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3831,42 +3837,42 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
       <c r="P84" s="13">
-        <v>4245.8249999999998</v>
+        <v>4260.3050000000003</v>
       </c>
       <c r="Q84" s="13"/>
     </row>
     <row r="85" ht="16.5" customHeight="1">
       <c t="s" r="A85" s="14">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -3874,13 +3880,13 @@
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
       <c t="s" r="G85" s="15">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H85" s="15"/>
       <c r="I85" s="15"/>
       <c r="J85" s="16"/>
       <c t="s" r="K85" s="17">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L85" s="17"/>
       <c r="M85" s="17"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>AMIGRAINE ADCO 30 TABLETS</t>
   </si>
   <si>
@@ -218,6 +230,15 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
     <t>CORASORE 150MG 20 TAB</t>
   </si>
   <si>
@@ -329,6 +350,21 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>8:5</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>EUTHYROX 100MCG 50 TAB.</t>
   </si>
   <si>
@@ -521,6 +557,9 @@
     <t>REPARIL-GEL N 40 GM</t>
   </si>
   <si>
+    <t>REVI 2 CREAM 50 GM</t>
+  </si>
+  <si>
     <t>SIRDALUD 2MG 20 TAB</t>
   </si>
   <si>
@@ -569,6 +608,15 @@
     <t>21.5000</t>
   </si>
   <si>
+    <t>VENTOCOUGH SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
   </si>
   <si>
@@ -578,6 +626,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>VILDAGLUSE PLUS 50/1000MG 30 TABS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>147.0000</t>
+  </si>
+  <si>
     <t>VISCERA 10MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -593,9 +650,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -695,7 +749,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 10:20 PM</t>
+    <t>Friday, 11 July, 2025 10:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1419,7 +1473,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1428,14 +1482,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1445,14 +1499,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>29</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1461,14 +1515,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1478,14 +1532,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1494,20 +1548,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1515,10 +1569,10 @@
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1527,24 +1581,24 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
@@ -1567,7 +1621,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1577,14 +1631,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1593,14 +1647,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1610,14 +1664,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1626,14 +1680,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1643,14 +1697,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1659,14 +1713,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1683,7 +1737,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1699,7 +1753,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1709,14 +1763,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1725,14 +1779,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1742,14 +1796,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1758,14 +1812,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1775,14 +1829,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1791,31 +1845,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1824,31 +1878,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1857,14 +1911,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1897,13 +1951,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1914,7 +1968,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1930,7 +1984,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1940,11 +1994,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1956,20 +2010,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1980,7 +2034,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1996,7 +2050,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2006,11 +2060,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2022,14 +2076,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2039,14 +2093,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2055,14 +2109,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2072,14 +2126,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2095,7 +2149,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2112,7 +2166,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2121,14 +2175,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2138,14 +2192,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2154,14 +2208,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2171,11 +2225,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2187,14 +2241,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2204,14 +2258,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2220,14 +2274,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2237,14 +2291,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2253,14 +2307,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2277,7 +2331,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2293,7 +2347,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2310,7 +2364,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2326,7 +2380,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2336,14 +2390,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2352,14 +2406,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2369,14 +2423,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2385,14 +2439,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2402,14 +2456,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2418,14 +2472,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2435,14 +2489,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2451,14 +2505,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2468,14 +2522,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2484,14 +2538,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2501,14 +2555,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2517,14 +2571,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2534,14 +2588,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2550,31 +2604,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2583,14 +2637,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2600,14 +2654,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2616,14 +2670,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2633,11 +2687,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2649,31 +2703,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2682,14 +2736,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2699,14 +2753,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2715,14 +2769,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2732,11 +2786,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2748,31 +2802,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2781,31 +2835,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2814,14 +2868,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2831,14 +2885,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2847,14 +2901,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2864,14 +2918,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2880,31 +2934,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>159</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2913,14 +2967,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2934,10 +2988,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2946,31 +3000,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2979,14 +3033,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2996,14 +3050,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3012,14 +3066,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3029,14 +3083,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3045,31 +3099,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3078,14 +3132,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3095,14 +3149,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3111,14 +3165,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3128,14 +3182,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3144,31 +3198,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3177,14 +3231,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3194,14 +3248,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3210,14 +3264,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3227,11 +3281,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3243,14 +3297,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3260,14 +3314,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3276,31 +3330,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3309,14 +3363,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3326,14 +3380,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3342,14 +3396,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3359,14 +3413,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3375,14 +3429,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3392,14 +3446,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3408,14 +3462,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3425,14 +3479,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3441,14 +3495,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3458,14 +3512,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3474,14 +3528,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3491,14 +3545,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3507,14 +3561,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>199</v>
+        <v>36</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3524,14 +3578,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3540,31 +3594,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>203</v>
+        <v>42</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>43</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3573,31 +3627,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3606,31 +3660,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>210</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3639,31 +3693,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>212</v>
+        <v>92</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>213</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>214</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3672,31 +3726,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3705,31 +3759,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3738,20 +3792,20 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -3759,10 +3813,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3771,31 +3825,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3804,31 +3858,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>104</v>
+        <v>218</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>105</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3837,66 +3891,264 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>227</v>
+        <v>42</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>28</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>29</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>30</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>4260.3050000000003</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>228</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
-        <v>229</v>
-      </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>233</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>234</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>39</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
         <v>230</v>
       </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>236</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>221</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>39</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>237</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>238</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>239</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>42</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>39</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>240</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>242</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>42</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>39</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>222</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>243</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>34</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>39</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>111</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>244</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>245</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>39</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>32</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>4623.1850000000004</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>246</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>247</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>248</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4290,10 +4542,40 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -272,13 +272,16 @@
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
-    <t>2:3</t>
+    <t>0:3</t>
   </si>
   <si>
     <t>85.00</t>
   </si>
   <si>
-    <t>17.0000</t>
+    <t>187.0000</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
   </si>
   <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
@@ -434,6 +437,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>LANZYPLEX 30 MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>MEMEXA 10MG 30F.C. TAB.</t>
   </si>
   <si>
@@ -515,9 +527,6 @@
     <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>128.00</t>
   </si>
   <si>
@@ -542,6 +551,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>REGIMAX 120MG 30 CAPS</t>
   </si>
   <si>
@@ -608,6 +626,15 @@
     <t>21.5000</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>VENTOCOUGH SYRUP 125 ML</t>
   </si>
   <si>
@@ -692,10 +719,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>34:0</t>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>42:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -749,7 +776,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 10:35 PM</t>
+    <t>Friday, 11 July, 2025 10:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2100,7 +2127,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2116,7 +2143,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2126,14 +2153,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2149,7 +2176,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2159,14 +2186,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2175,14 +2202,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2192,14 +2219,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>34</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2208,14 +2235,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2225,14 +2252,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2241,14 +2268,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2258,14 +2285,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2274,14 +2301,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2291,14 +2318,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2307,14 +2334,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2324,14 +2351,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2340,14 +2367,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2357,11 +2384,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>34</v>
@@ -2373,14 +2400,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2390,14 +2417,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>117</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2406,14 +2433,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2423,14 +2450,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>34</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2439,14 +2466,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2456,14 +2483,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2472,7 +2499,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2489,14 +2516,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2505,14 +2532,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2522,14 +2549,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2545,7 +2572,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2555,14 +2582,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2571,7 +2598,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2588,11 +2615,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>34</v>
@@ -2604,14 +2631,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2621,11 +2648,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>34</v>
@@ -2637,14 +2664,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2654,11 +2681,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>34</v>
@@ -2670,14 +2697,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2687,14 +2714,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2703,28 +2730,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>34</v>
@@ -2743,7 +2770,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2753,14 +2780,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2769,7 +2796,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2782,18 +2809,18 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2802,31 +2829,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2835,14 +2862,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2852,7 +2879,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2875,21 +2902,21 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2901,14 +2928,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2918,14 +2945,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2934,31 +2961,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2967,7 +2994,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2984,11 +3011,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>34</v>
@@ -3000,28 +3027,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>34</v>
@@ -3033,14 +3060,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3050,14 +3077,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>171</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3066,14 +3093,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3083,14 +3110,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3099,31 +3126,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3132,14 +3159,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3149,14 +3176,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3165,31 +3192,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3198,14 +3225,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3215,11 +3242,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>34</v>
@@ -3231,14 +3258,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3248,14 +3275,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3264,7 +3291,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3281,14 +3308,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3297,14 +3324,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3314,14 +3341,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3330,28 +3357,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>34</v>
@@ -3363,14 +3390,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3380,14 +3407,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3403,7 +3430,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3413,11 +3440,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3429,31 +3456,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>105</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3462,14 +3489,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3479,11 +3506,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>195</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>34</v>
@@ -3495,14 +3522,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3512,11 +3539,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>197</v>
+        <v>43</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>198</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3528,14 +3555,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3545,14 +3572,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3561,14 +3588,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3578,14 +3605,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3594,14 +3621,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3611,14 +3638,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3627,14 +3654,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3644,11 +3671,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>34</v>
@@ -3660,7 +3687,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3677,11 +3704,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>34</v>
@@ -3693,14 +3720,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3710,14 +3737,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>94</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3726,14 +3753,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3743,14 +3770,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3759,14 +3786,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>217</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3780,10 +3807,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3792,31 +3819,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>47</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3825,31 +3852,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>93</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>34</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3858,31 +3885,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>228</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3891,31 +3918,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>232</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3924,14 +3951,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3941,14 +3968,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3957,14 +3984,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3974,14 +4001,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3990,7 +4017,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4007,14 +4034,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>34</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4023,7 +4050,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4040,14 +4067,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>34</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4056,14 +4083,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4073,14 +4100,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>112</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4089,14 +4116,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4106,49 +4133,181 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>32</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>248</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>42</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>39</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>249</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>251</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>42</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>39</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>231</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>252</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>34</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>39</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>112</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>253</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>254</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>39</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>32</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
         <v>33</v>
       </c>
-      <c t="s" r="Q89" s="12">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>4623.1850000000004</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>246</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
-        <v>247</v>
-      </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
-        <v>248</v>
-      </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c t="s" r="Q93" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>5015.1850000000004</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>255</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>256</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>257</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4572,10 +4731,30 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -776,7 +776,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 10:52 PM</t>
+    <t>Friday, 11 July, 2025 10:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -353,6 +353,15 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>127.3800</t>
+  </si>
+  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
@@ -686,6 +695,12 @@
     <t>16.3200</t>
   </si>
   <si>
+    <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -776,7 +791,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 10:57 PM</t>
+    <t>Friday, 11 July, 2025 10:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2440,7 +2455,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2450,14 +2465,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2466,14 +2481,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2483,14 +2498,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>34</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2499,14 +2514,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2523,7 +2538,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2556,7 +2571,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2572,7 +2587,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2582,14 +2597,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2598,14 +2613,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2615,14 +2630,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2671,7 +2686,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2704,7 +2719,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2770,7 +2785,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2787,7 +2802,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2803,24 +2818,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2829,28 +2844,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>34</v>
@@ -2862,14 +2877,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2879,14 +2894,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2895,28 +2910,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2928,28 +2943,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2968,7 +2983,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3001,7 +3016,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3018,7 +3033,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3040,7 +3055,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3073,7 +3088,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3100,7 +3115,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3133,7 +3148,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3150,7 +3165,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>174</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3159,14 +3174,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3176,14 +3191,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3199,21 +3214,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3225,31 +3240,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3265,7 +3280,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3275,14 +3290,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3298,7 +3313,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3308,14 +3323,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3324,14 +3339,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3341,11 +3356,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>34</v>
@@ -3357,14 +3372,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3374,11 +3389,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>34</v>
@@ -3390,7 +3405,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3407,14 +3422,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3423,14 +3438,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3440,11 +3455,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3456,31 +3471,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3496,21 +3511,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>109</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>34</v>
@@ -3522,14 +3537,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3539,14 +3554,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3555,7 +3570,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3572,14 +3587,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3588,14 +3603,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3605,14 +3620,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3621,7 +3636,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3638,14 +3653,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3661,7 +3676,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3678,7 +3693,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3694,7 +3709,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3727,7 +3742,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3744,7 +3759,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3760,7 +3775,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3777,7 +3792,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3793,7 +3808,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3807,7 +3822,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>34</v>
@@ -3819,14 +3834,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3836,11 +3851,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>34</v>
@@ -3852,14 +3867,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3869,14 +3884,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>93</v>
+        <v>193</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>94</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>95</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3885,14 +3900,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3902,14 +3917,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>223</v>
+        <v>93</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>224</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3925,7 +3940,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>226</v>
+        <v>95</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3935,14 +3950,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3951,31 +3966,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>231</v>
+        <v>172</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3984,31 +3999,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4017,14 +4032,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4034,14 +4049,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>236</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>237</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4050,7 +4065,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4067,14 +4082,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>241</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4083,14 +4098,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>243</v>
+        <v>42</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4100,14 +4115,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>36</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4116,14 +4131,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4133,14 +4148,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>36</v>
+        <v>246</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4149,14 +4164,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>42</v>
+        <v>248</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4166,14 +4181,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4182,14 +4197,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4199,14 +4214,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4215,14 +4230,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4232,11 +4247,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>112</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>113</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>34</v>
@@ -4248,14 +4263,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>254</v>
+        <v>42</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4265,49 +4280,115 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>32</v>
+        <v>236</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>257</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>34</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>39</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>112</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>258</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>259</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>39</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>32</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
         <v>33</v>
       </c>
-      <c t="s" r="Q93" s="12">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>5015.1850000000004</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>255</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
-        <v>256</v>
-      </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
-        <v>257</v>
-      </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c t="s" r="Q95" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>5208.5649999999996</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>260</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>261</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>262</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4751,10 +4832,20 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -791,7 +791,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 10:58 PM</t>
+    <t>Friday, 11 July, 2025 11:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -287,6 +287,12 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>DEXAZONE 0.5MG 60 TAB</t>
   </si>
   <si>
@@ -548,9 +554,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -581,6 +584,9 @@
     <t>RELAX CREAM 50 GM</t>
   </si>
   <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
     <t>REPARIL-GEL N 40 GM</t>
   </si>
   <si>
@@ -686,6 +692,9 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
+    <t>84.6600</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -731,6 +740,18 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>راجون احمر 250 مل</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -746,42 +767,42 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>65:0</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شامبو بانتين 190 مللي </t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>سرنجات دواء 5 سم</t>
-  </si>
-  <si>
-    <t>65:0</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شامبو بانتين 190 مللي </t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
     <t xml:space="preserve">كريم كازانوفا </t>
   </si>
   <si>
@@ -791,7 +812,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 11:07 PM</t>
+    <t>Friday, 11 July, 2025 11:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2191,7 +2212,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2205,10 +2226,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2217,7 +2238,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2234,14 +2255,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2250,7 +2271,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2267,11 +2288,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>34</v>
@@ -2283,7 +2304,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2300,11 +2321,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2316,7 +2337,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2333,11 +2354,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>34</v>
@@ -2349,14 +2370,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2366,11 +2387,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2382,7 +2403,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2399,11 +2420,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>34</v>
@@ -2415,7 +2436,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2432,11 +2453,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>34</v>
@@ -2448,7 +2469,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2465,11 +2486,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2481,14 +2502,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2498,14 +2519,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2514,14 +2535,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2531,11 +2552,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>34</v>
@@ -2547,7 +2568,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2564,11 +2585,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>29</v>
@@ -2580,7 +2601,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2597,11 +2618,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>34</v>
@@ -2613,7 +2634,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2646,7 +2667,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2663,11 +2684,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>34</v>
@@ -2679,7 +2700,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2696,11 +2717,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>34</v>
@@ -2712,7 +2733,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2729,11 +2750,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>34</v>
@@ -2745,7 +2766,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2762,11 +2783,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>34</v>
@@ -2778,7 +2799,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2795,11 +2816,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>34</v>
@@ -2811,7 +2832,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2828,11 +2849,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2844,7 +2865,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2877,7 +2898,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2910,7 +2931,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2927,11 +2948,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2943,14 +2964,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2964,7 +2985,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2976,7 +2997,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2993,11 +3014,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3009,7 +3030,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3026,11 +3047,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3042,7 +3063,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3059,11 +3080,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>34</v>
@@ -3075,7 +3096,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3092,11 +3113,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>34</v>
@@ -3108,7 +3129,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3125,11 +3146,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>34</v>
@@ -3141,7 +3162,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3158,11 +3179,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>34</v>
@@ -3174,7 +3195,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3191,14 +3212,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3207,14 +3228,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3224,7 +3245,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3240,7 +3261,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3257,11 +3278,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3273,14 +3294,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3290,11 +3311,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>34</v>
@@ -3306,7 +3327,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3323,11 +3344,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>29</v>
@@ -3339,7 +3360,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3356,11 +3377,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>34</v>
@@ -3372,14 +3393,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3389,14 +3410,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3405,14 +3426,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3422,11 +3443,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>34</v>
@@ -3438,7 +3459,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3455,14 +3476,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3478,7 +3499,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3488,11 +3509,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3511,24 +3532,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>197</v>
+        <v>126</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3537,28 +3558,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>34</v>
@@ -3570,14 +3591,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3587,14 +3608,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3603,7 +3624,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3620,14 +3641,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3643,7 +3664,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3653,14 +3674,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3686,14 +3707,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3702,14 +3723,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3719,14 +3740,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3735,14 +3756,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3752,11 +3773,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>34</v>
@@ -3768,14 +3789,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3785,14 +3806,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3801,14 +3822,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3818,14 +3839,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3834,14 +3855,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3851,11 +3872,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>34</v>
@@ -3874,7 +3895,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3884,11 +3905,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>34</v>
@@ -3907,7 +3928,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3917,14 +3938,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>93</v>
+        <v>195</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>94</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>95</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3933,14 +3954,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3950,14 +3971,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>226</v>
+        <v>95</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>227</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3973,7 +3994,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>229</v>
+        <v>97</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3983,14 +4004,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3999,14 +4020,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4016,14 +4037,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4032,31 +4053,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4072,7 +4093,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>42</v>
+        <v>238</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4082,14 +4103,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>239</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4115,14 +4136,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>242</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4138,7 +4159,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4148,14 +4169,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>246</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4171,7 +4192,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>248</v>
+        <v>42</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4181,14 +4202,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
+        <v>248</v>
+      </c>
+      <c t="s" r="Q90" s="12">
         <v>249</v>
-      </c>
-      <c t="s" r="Q90" s="12">
-        <v>36</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4204,7 +4225,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4221,7 +4242,7 @@
         <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>36</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4237,7 +4258,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4247,14 +4268,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4270,7 +4291,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>42</v>
+        <v>238</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4280,14 +4301,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4296,14 +4317,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4313,11 +4334,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>112</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>113</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>34</v>
@@ -4329,14 +4350,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>259</v>
+        <v>42</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4346,49 +4367,115 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>264</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>34</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>39</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>114</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>265</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>266</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>39</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>32</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
         <v>33</v>
       </c>
-      <c t="s" r="Q95" s="12">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>5208.5649999999996</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
-        <v>260</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
-        <v>261</v>
-      </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
-        <v>262</v>
-      </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c t="s" r="Q97" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>5303.0450000000001</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
+        <v>267</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>268</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>269</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4842,10 +4929,20 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -89,208 +89,244 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
-    <t>1:4</t>
+    <t>0:3</t>
   </si>
   <si>
     <t>78.00</t>
   </si>
   <si>
-    <t>24.9600</t>
+    <t>115.4400</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>AQUA PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>AUGMENTIN ES-600 PD. FOR ORAL SUSP. 75 ML</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>169.0000</t>
+  </si>
+  <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>128.0000</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
+  </si>
+  <si>
+    <t>142.00</t>
+  </si>
+  <si>
+    <t>142.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CERELAC تمر وقمح ولبن</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DALOLIFE 10 SACHET</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>187.0000</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>23.7600</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>93.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTODINE20    6 AMP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>AQUA PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>AUGMENTIN ES-600 PD. FOR ORAL SUSP. 75 ML</t>
-  </si>
-  <si>
-    <t>169.00</t>
-  </si>
-  <si>
-    <t>169.0000</t>
-  </si>
-  <si>
-    <t>BETOLVEX 1MG/ML 2 AMP</t>
-  </si>
-  <si>
-    <t>64.00</t>
-  </si>
-  <si>
-    <t>128.0000</t>
-  </si>
-  <si>
-    <t>BI ALCOFAN 150 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 400MG 30 TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
-  </si>
-  <si>
-    <t>142.00</t>
-  </si>
-  <si>
-    <t>142.0000</t>
-  </si>
-  <si>
-    <t>CERELAC تمر وقمح ولبن</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>COLONA 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>COLOVERIN D 135MG 30 TAB</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
-    <t>CORASORE 150MG 20 TAB</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DALOLIFE 10 SACHET</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>187.0000</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>23.7600</t>
+    <t>DEXATOBRIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
   </si>
   <si>
     <t>DEXAZONE 0.5MG 60 TAB</t>
@@ -416,6 +452,15 @@
     <t>GAPTIN 100 MG 30 CAPS.</t>
   </si>
   <si>
+    <t>GENUPHIL ORIGINAL 50 TAB</t>
+  </si>
+  <si>
+    <t>260.00</t>
+  </si>
+  <si>
+    <t>260.0000</t>
+  </si>
+  <si>
     <t>GYNERA 21 C.TABS</t>
   </si>
   <si>
@@ -434,6 +479,15 @@
     <t>256.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
   </si>
   <si>
@@ -668,6 +722,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>VILDAGLUSE PLUS 50/1000MG 30 TABS</t>
   </si>
   <si>
@@ -722,6 +785,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -734,12 +806,6 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>راجون احمر 250 مل</t>
   </si>
   <si>
@@ -752,13 +818,22 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>رول اون ريكسونا25</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>42:0</t>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>43:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -803,6 +878,12 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>كريم فاتيكا 65 مل</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">كريم كازانوفا </t>
   </si>
   <si>
@@ -812,7 +893,10 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Friday, 11 July, 2025 11:15 PM</t>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
+    <t>Friday, 11 July, 2025 11:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1948,13 +2032,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1965,7 +2049,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1981,13 +2065,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1998,7 +2082,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2014,7 +2098,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2047,7 +2131,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2057,11 +2141,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2073,31 +2157,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2106,14 +2190,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2130,7 +2214,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2163,7 +2247,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2179,21 +2263,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>34</v>
@@ -2205,14 +2289,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2222,14 +2306,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2238,14 +2322,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2255,14 +2339,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>97</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2271,14 +2355,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2288,11 +2372,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>34</v>
@@ -2304,14 +2388,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2321,14 +2405,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2337,14 +2421,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2354,11 +2438,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>34</v>
@@ -2370,14 +2454,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2387,14 +2471,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>109</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2410,7 +2494,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2443,7 +2527,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2460,7 +2544,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2476,7 +2560,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2493,7 +2577,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2509,7 +2593,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2519,14 +2603,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2535,14 +2619,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2552,11 +2636,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>34</v>
@@ -2568,14 +2652,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2585,14 +2669,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2601,14 +2685,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2618,14 +2702,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2634,14 +2718,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2651,14 +2735,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2667,14 +2751,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2684,11 +2768,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>34</v>
@@ -2700,14 +2784,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2717,14 +2801,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>34</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2733,14 +2817,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2750,11 +2834,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>34</v>
@@ -2766,14 +2850,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2783,14 +2867,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2806,7 +2890,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2839,7 +2923,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2856,7 +2940,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2872,21 +2956,21 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>34</v>
@@ -2898,14 +2982,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2915,14 +2999,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2931,7 +3015,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2948,14 +3032,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2964,31 +3048,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2997,14 +3081,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3014,14 +3098,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3030,14 +3114,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3047,11 +3131,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3063,28 +3147,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>34</v>
@@ -3096,28 +3180,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>34</v>
@@ -3129,14 +3213,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3146,14 +3230,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3162,31 +3246,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3202,7 +3286,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3219,7 +3303,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>179</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3228,14 +3312,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3245,11 +3329,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3268,24 +3352,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3294,28 +3378,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>42</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>34</v>
@@ -3327,14 +3411,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3344,14 +3428,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3360,14 +3444,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3377,11 +3461,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>34</v>
@@ -3393,14 +3477,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3410,14 +3494,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>71</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>72</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3426,14 +3510,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3443,14 +3527,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3459,31 +3543,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3492,14 +3576,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3509,14 +3593,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3525,14 +3609,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3542,14 +3626,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3558,28 +3642,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>34</v>
@@ -3591,14 +3675,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3608,14 +3692,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3624,7 +3708,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3641,14 +3725,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3657,14 +3741,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3674,14 +3758,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3690,14 +3774,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3707,14 +3791,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3723,7 +3807,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3740,11 +3824,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3756,28 +3840,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>34</v>
@@ -3789,14 +3873,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3806,11 +3890,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>214</v>
+        <v>123</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>215</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>34</v>
@@ -3822,14 +3906,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3839,14 +3923,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3855,14 +3939,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3872,14 +3956,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3888,14 +3972,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3905,11 +3989,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>223</v>
+        <v>88</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>34</v>
@@ -3921,14 +4005,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3938,14 +4022,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3954,14 +4038,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3971,14 +4055,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>95</v>
+        <v>229</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>62</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3987,14 +4071,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4004,14 +4088,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4020,14 +4104,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>232</v>
+        <v>36</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4037,14 +4121,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>174</v>
+        <v>235</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4053,14 +4137,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4074,10 +4158,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4086,31 +4170,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>238</v>
+        <v>42</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>47</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4119,28 +4203,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>242</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>34</v>
@@ -4152,24 +4236,24 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>244</v>
+        <v>42</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4192,24 +4276,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>235</v>
+        <v>107</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>249</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4218,31 +4302,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4251,31 +4335,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4284,28 +4368,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>36</v>
@@ -4317,14 +4401,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4334,11 +4418,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>34</v>
@@ -4350,14 +4434,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4367,14 +4451,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4390,7 +4474,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4400,11 +4484,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>114</v>
+        <v>259</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>115</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>34</v>
@@ -4433,49 +4517,412 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>32</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>269</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>270</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>39</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>271</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>272</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>42</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>39</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>256</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>275</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>42</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>39</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>276</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>278</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>279</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>39</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>276</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>280</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>281</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>262</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>39</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>282</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>283</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>284</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>42</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>39</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>285</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>286</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>287</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>42</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>39</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>263</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>288</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>289</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>290</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>39</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>232</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>291</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>34</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>39</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>126</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>292</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>293</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>39</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>32</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
         <v>33</v>
       </c>
-      <c t="s" r="Q97" s="12">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>5303.0450000000001</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
-        <v>267</v>
-      </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
-        <v>268</v>
-      </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
-        <v>269</v>
-      </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c t="s" r="Q107" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>294</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>238</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>39</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>259</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>6055.3249999999998</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>295</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>296</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>297</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4939,10 +5386,65 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 12:00 AM</t>
+    <t>Saturday, 12 July, 2025 12:01 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-11_00-00.xlsx
+++ b/DaySale_2025-07-11_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 12:01 AM</t>
+    <t>Saturday, 12 July, 2025 12:05 AM</t>
   </si>
   <si>
     <t>1/1</t>
